--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_1_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_1_25.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1534062.400377397</v>
+        <v>1550707.519681086</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>713587.7684111177</v>
+        <v>713587.7684111178</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11813519.27205212</v>
+        <v>11813519.27205211</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6934835.679535762</v>
+        <v>6934835.679535761</v>
       </c>
     </row>
     <row r="11">
@@ -656,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>180.1159031720507</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -680,7 +682,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -701,7 +703,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -713,19 +715,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
       <c r="W2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="Y2" t="n">
-        <v>178.1573130319831</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,10 +737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>131.7970256412723</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -750,16 +752,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -786,16 +788,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>23.84729623865952</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>241.0142888776591</v>
@@ -804,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -835,10 +837,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>22.26949182588285</v>
@@ -856,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -871,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -899,7 +901,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -914,10 +916,10 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -938,28 +940,28 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>66.75433449706937</v>
+        <v>222.1008216780093</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -972,13 +974,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>47.38579073979407</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -1029,13 +1031,13 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>87.72213096015525</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1078,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1096,10 +1098,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>22.0339917726843</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1120,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
     </row>
     <row r="8">
@@ -1130,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>30.24678523090115</v>
+      </c>
+      <c r="C8" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1154,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1178,7 +1180,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1190,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>168.1666138174382</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1212,7 +1214,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1224,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1233,7 +1235,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1257,28 +1259,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>28.34393913114707</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>201.2173864853858</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1300,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1315,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1345,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1379,7 +1381,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>117.3450705775783</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1427,13 +1429,13 @@
         <v>251.2985142370684</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>75.36622836924371</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1449,25 +1451,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>92.58702404235412</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,22 +1496,22 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>48.98427584501924</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
@@ -1543,10 +1545,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>103.3249685652703</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>147.5019580580808</v>
+        <v>21.38816470214931</v>
       </c>
       <c r="J13" t="n">
         <v>74.67247646141476</v>
@@ -1570,10 +1572,10 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>64.0297007843443</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>165.4090611368575</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1613,19 +1615,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>405.7415719969023</v>
+        <v>312.9379844122245</v>
       </c>
       <c r="H14" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>47.74806282379119</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1652,22 +1654,22 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1686,19 +1688,19 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>7.425224531301852</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1731,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>80.58358449827553</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S15" t="n">
         <v>165.8272126914158</v>
@@ -1740,16 +1742,16 @@
         <v>198.8939788055617</v>
       </c>
       <c r="U15" t="n">
-        <v>163.7183139228602</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -1819,19 +1821,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.3046124576955</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>39.19479062707041</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>106.9147497326711</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1850,19 +1852,19 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>47.74806282379119</v>
+        <v>117.3450705775779</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1889,22 +1891,22 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -1926,7 +1928,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
         <v>157.6450804554009</v>
@@ -1938,10 +1940,10 @@
         <v>137.0282495084215</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,28 +1970,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>132.4670034684875</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>15.13518083054779</v>
       </c>
     </row>
     <row r="19">
@@ -2053,16 +2055,16 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>226.8162656893113</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>98.68313739545464</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>73.36175976093791</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2084,22 +2086,22 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>126.7263942181551</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>96.30626612731561</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2132,22 +2134,22 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2163,19 +2165,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.0282495084215</v>
+        <v>34.94629508123426</v>
       </c>
       <c r="H21" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>78.54202280713804</v>
@@ -2205,28 +2207,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>15.13518083054779</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -2290,10 +2292,10 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>39.19479062707042</v>
+        <v>226.8162656893113</v>
       </c>
       <c r="U22" t="n">
-        <v>286.3046124576955</v>
+        <v>98.68313739545462</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2321,7 +2323,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>70.62611983656755</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -2378,7 +2380,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>70.6261198365675</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2394,22 +2396,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>88.00880902957773</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2445,16 +2447,16 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>122.0501874122702</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
         <v>251.6949831609196</v>
@@ -2488,13 +2490,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>18.12022702288992</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>159.8772180037952</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>147.5019580580808</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2536,13 +2538,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>38.97640474817496</v>
       </c>
     </row>
     <row r="26">
@@ -2555,16 +2557,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>106.0136705317402</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -2600,7 +2602,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>70.62611983656772</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -2615,13 +2617,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2631,13 +2633,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>157.6450804554009</v>
@@ -2649,10 +2651,10 @@
         <v>137.0282495084215</v>
       </c>
       <c r="H27" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>46.94271415388144</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,28 +2681,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>80.58358449827551</v>
+        <v>59.7219476531534</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2761,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>38.97640474817491</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2773,13 +2775,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>106.9147497326711</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2795,19 +2797,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>200.3371067511482</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>25.61611548898913</v>
       </c>
       <c r="F29" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2837,13 +2839,13 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2871,22 +2873,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>61.57652913373884</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2916,19 +2918,19 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S30" t="n">
-        <v>120.2770348601148</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>198.8939788055617</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>251.6949831609196</v>
@@ -2937,7 +2939,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -2950,19 +2952,19 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>9.637108967925595</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>167.7266695472104</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3001,7 +3003,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>157.7727335375553</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3074,25 +3076,25 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U32" t="n">
         <v>251.2985142370684</v>
       </c>
       <c r="V32" t="n">
-        <v>221.5974673091472</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>83.85219763151034</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3105,7 +3107,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
         <v>172.7084989883157</v>
@@ -3114,7 +3116,7 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>113.4883178883723</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -3156,10 +3158,10 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>81.12752273267785</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>225.9206407878966</v>
@@ -3241,16 +3243,16 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.3046124576955</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>39.19479062707041</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>38.97640474817464</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3263,13 +3265,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>56.06257007945297</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -3281,10 +3283,10 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>263.1876011547913</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3317,22 +3319,22 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3348,13 +3350,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>81.12752273267782</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -3390,16 +3392,16 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
@@ -3408,7 +3410,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>15.1449719264985</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -3421,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>145.6674229028286</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3433,7 +3435,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>106.0890042129125</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3472,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>219.4103988718534</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3515,13 +3517,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I38" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3548,28 +3550,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>60.77631835110542</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V38" t="n">
-        <v>281.6324150430729</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3579,10 +3581,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
@@ -3591,16 +3593,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>113.4699037401273</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3630,22 +3632,22 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>127.7600428183334</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -3673,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>38.97640474817491</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3709,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>98.6831373954543</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>226.8162656893113</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3721,7 +3723,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3743,16 +3745,16 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>11.4572778610428</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3785,28 +3787,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>117.3450705775779</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3816,7 +3818,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>94.71041441557992</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -3828,16 +3830,16 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I42" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,10 +3866,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T42" t="n">
         <v>198.8939788055617</v>
@@ -3882,10 +3884,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>108.1764056959429</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3958,13 +3960,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>106.9147497326711</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>99.78974769572852</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3974,10 +3976,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -3986,16 +3988,16 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="G44" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>262.1287817022241</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4037,13 +4039,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>34.61564851813438</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4056,22 +4058,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>102.8107179695068</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>78.54202280713804</v>
@@ -4101,25 +4103,25 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>174.1736765502209</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
         <v>205.6826957773044</v>
@@ -4147,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>38.97640474817491</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4180,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>98.68313739545464</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>226.8162656893113</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4195,7 +4197,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>53.75394372784808</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="C2" t="n">
-        <v>53.75394372784808</v>
+        <v>41.68395448076474</v>
       </c>
       <c r="D2" t="n">
-        <v>53.75394372784808</v>
+        <v>41.68395448076474</v>
       </c>
       <c r="E2" t="n">
-        <v>53.75394372784808</v>
+        <v>41.68395448076474</v>
       </c>
       <c r="F2" t="n">
-        <v>46.80844297864461</v>
+        <v>34.73845373156126</v>
       </c>
       <c r="G2" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H2" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I2" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J2" t="n">
         <v>19.28114311021272</v>
@@ -4349,31 +4351,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U2" t="n">
-        <v>720.6083788665362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V2" t="n">
-        <v>720.6083788665362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="W2" t="n">
-        <v>477.1596022224361</v>
+        <v>710.516763498309</v>
       </c>
       <c r="X2" t="n">
-        <v>233.7108255783361</v>
+        <v>467.067986854209</v>
       </c>
       <c r="Y2" t="n">
-        <v>53.75394372784808</v>
+        <v>467.067986854209</v>
       </c>
     </row>
     <row r="3">
@@ -4383,28 +4385,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>243.4632136343998</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="C3" t="n">
-        <v>110.334904905842</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="D3" t="n">
-        <v>110.334904905842</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="E3" t="n">
-        <v>110.334904905842</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="F3" t="n">
-        <v>110.334904905842</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G3" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H3" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
@@ -4413,16 +4415,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>234.810827406191</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N3" t="n">
-        <v>473.4149733950735</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O3" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P3" t="n">
         <v>894.6625969973069</v>
@@ -4434,25 +4436,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>862.8876260635219</v>
+        <v>838.7994480446739</v>
       </c>
       <c r="T3" t="n">
-        <v>862.8876260635219</v>
+        <v>636.61285340344</v>
       </c>
       <c r="U3" t="n">
-        <v>862.8876260635219</v>
+        <v>636.61285340344</v>
       </c>
       <c r="V3" t="n">
-        <v>862.8876260635219</v>
+        <v>401.4607451716973</v>
       </c>
       <c r="W3" t="n">
-        <v>619.4388494194218</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="X3" t="n">
-        <v>619.4388494194218</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="Y3" t="n">
-        <v>411.6785506544679</v>
+        <v>158.0119685275972</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="C4" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D4" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E4" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F4" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G4" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H4" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I4" t="n">
-        <v>136.0777814360265</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J4" t="n">
         <v>41.77557929797318</v>
@@ -4504,34 +4506,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U4" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="V4" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="W4" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="X4" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="Y4" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>266.3558523848238</v>
+        <v>285.1327311248648</v>
       </c>
       <c r="C5" t="n">
-        <v>266.3558523848238</v>
+        <v>285.1327311248648</v>
       </c>
       <c r="D5" t="n">
-        <v>266.3558523848238</v>
+        <v>41.68395448076474</v>
       </c>
       <c r="E5" t="n">
-        <v>266.3558523848238</v>
+        <v>41.68395448076474</v>
       </c>
       <c r="F5" t="n">
-        <v>259.4103516356203</v>
+        <v>34.73845373156126</v>
       </c>
       <c r="G5" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H5" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4586,31 +4588,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R5" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S5" t="n">
-        <v>802.5825927271064</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T5" t="n">
-        <v>577.2332497330343</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U5" t="n">
-        <v>577.2332497330343</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="V5" t="n">
-        <v>577.2332497330343</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="W5" t="n">
-        <v>333.7844730889342</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="X5" t="n">
-        <v>266.3558523848238</v>
+        <v>285.1327311248648</v>
       </c>
       <c r="Y5" t="n">
-        <v>266.3558523848238</v>
+        <v>285.1327311248648</v>
       </c>
     </row>
     <row r="6">
@@ -4620,10 +4622,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>372.6384501595139</v>
+        <v>398.1570697793896</v>
       </c>
       <c r="C6" t="n">
-        <v>372.6384501595139</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="D6" t="n">
         <v>223.7040404982626</v>
@@ -4647,22 +4649,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>249.2442489785619</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N6" t="n">
-        <v>487.8483949674443</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O6" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
@@ -4677,19 +4679,19 @@
         <v>689.4702815141908</v>
       </c>
       <c r="U6" t="n">
-        <v>461.2466632505798</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V6" t="n">
-        <v>372.6384501595139</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W6" t="n">
-        <v>372.6384501595139</v>
+        <v>446.0215048700907</v>
       </c>
       <c r="X6" t="n">
-        <v>372.6384501595139</v>
+        <v>446.0215048700907</v>
       </c>
       <c r="Y6" t="n">
-        <v>372.6384501595139</v>
+        <v>446.0215048700907</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4744,31 +4746,31 @@
         <v>151.0645035650224</v>
       </c>
       <c r="Q7" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R7" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S7" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T7" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U7" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V7" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W7" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X7" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>53.75394372784808</v>
+        <v>285.1327311248648</v>
       </c>
       <c r="C8" t="n">
-        <v>53.75394372784808</v>
+        <v>41.68395448076474</v>
       </c>
       <c r="D8" t="n">
-        <v>53.75394372784808</v>
+        <v>41.68395448076474</v>
       </c>
       <c r="E8" t="n">
-        <v>53.75394372784808</v>
+        <v>41.68395448076474</v>
       </c>
       <c r="F8" t="n">
-        <v>46.80844297864461</v>
+        <v>34.73845373156126</v>
       </c>
       <c r="G8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4826,28 +4828,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T8" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U8" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V8" t="n">
-        <v>784.1002736601483</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W8" t="n">
-        <v>540.6514970160482</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="X8" t="n">
-        <v>540.6514970160482</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="Y8" t="n">
-        <v>297.2027203719481</v>
+        <v>315.6850394389064</v>
       </c>
     </row>
     <row r="9">
@@ -4857,46 +4859,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>284.0338015341832</v>
+        <v>249.0657303232264</v>
       </c>
       <c r="C9" t="n">
-        <v>109.5807722530562</v>
+        <v>249.0657303232264</v>
       </c>
       <c r="D9" t="n">
-        <v>109.5807722530562</v>
+        <v>249.0657303232264</v>
       </c>
       <c r="E9" t="n">
-        <v>109.5807722530562</v>
+        <v>249.0657303232264</v>
       </c>
       <c r="F9" t="n">
-        <v>109.5807722530562</v>
+        <v>249.0657303232264</v>
       </c>
       <c r="G9" t="n">
-        <v>109.5807722530562</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H9" t="n">
-        <v>109.5807722530562</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>487.8483949674443</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N9" t="n">
-        <v>726.4525409563269</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O9" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P9" t="n">
         <v>964.0571555106362</v>
@@ -4905,28 +4907,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>862.8876260635219</v>
+        <v>935.426913964023</v>
       </c>
       <c r="S9" t="n">
-        <v>689.4702815141908</v>
+        <v>935.426913964023</v>
       </c>
       <c r="T9" t="n">
-        <v>487.2836868729568</v>
+        <v>935.426913964023</v>
       </c>
       <c r="U9" t="n">
-        <v>487.2836868729568</v>
+        <v>935.426913964023</v>
       </c>
       <c r="V9" t="n">
-        <v>284.0338015341832</v>
+        <v>700.2748057322804</v>
       </c>
       <c r="W9" t="n">
-        <v>284.0338015341832</v>
+        <v>456.8260290881803</v>
       </c>
       <c r="X9" t="n">
-        <v>284.0338015341832</v>
+        <v>456.8260290881803</v>
       </c>
       <c r="Y9" t="n">
-        <v>284.0338015341832</v>
+        <v>249.0657303232264</v>
       </c>
     </row>
     <row r="10">
@@ -4936,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="C10" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D10" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E10" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -4993,19 +4995,19 @@
         <v>151.0645035650224</v>
       </c>
       <c r="U10" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="V10" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="W10" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="X10" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="Y10" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
     </row>
     <row r="11">
@@ -5015,40 +5017,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>150.9897000805384</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="C11" t="n">
-        <v>150.9897000805384</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D11" t="n">
-        <v>150.9897000805384</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E11" t="n">
-        <v>150.9897000805384</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F11" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G11" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H11" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I11" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J11" t="n">
-        <v>70.13987180521485</v>
+        <v>70.13987180521497</v>
       </c>
       <c r="K11" t="n">
-        <v>247.358046901132</v>
+        <v>247.3580469011318</v>
       </c>
       <c r="L11" t="n">
-        <v>519.4894913528326</v>
+        <v>519.4894913528325</v>
       </c>
       <c r="M11" t="n">
-        <v>838.8947028941458</v>
+        <v>838.8947028941456</v>
       </c>
       <c r="N11" t="n">
         <v>1148.836227140252</v>
@@ -5063,7 +5065,7 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R11" t="n">
-        <v>1508.970645214178</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="S11" t="n">
         <v>1311.402045381201</v>
@@ -5072,19 +5074,19 @@
         <v>1088.658125761969</v>
       </c>
       <c r="U11" t="n">
-        <v>834.8212426942232</v>
+        <v>834.8212426942227</v>
       </c>
       <c r="V11" t="n">
-        <v>503.7583553506526</v>
+        <v>758.6937392909463</v>
       </c>
       <c r="W11" t="n">
-        <v>150.9897000805384</v>
+        <v>405.9250840208321</v>
       </c>
       <c r="X11" t="n">
-        <v>150.9897000805384</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="Y11" t="n">
-        <v>150.9897000805384</v>
+        <v>32.45932575975218</v>
       </c>
     </row>
     <row r="12">
@@ -5094,46 +5096,46 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>989.6600854869342</v>
+        <v>125.9815722671806</v>
       </c>
       <c r="C12" t="n">
-        <v>815.2070562058072</v>
+        <v>125.9815722671806</v>
       </c>
       <c r="D12" t="n">
-        <v>666.272646544556</v>
+        <v>125.9815722671806</v>
       </c>
       <c r="E12" t="n">
-        <v>507.0351915391004</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F12" t="n">
-        <v>360.5006335659854</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G12" t="n">
-        <v>222.0882603251556</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H12" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I12" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J12" t="n">
         <v>61.20822116384403</v>
       </c>
       <c r="K12" t="n">
-        <v>236.9655055809357</v>
+        <v>201.1187329501917</v>
       </c>
       <c r="L12" t="n">
-        <v>534.6972605625989</v>
+        <v>498.8504879318549</v>
       </c>
       <c r="M12" t="n">
-        <v>934.1153971668618</v>
+        <v>898.2686245361178</v>
       </c>
       <c r="N12" t="n">
-        <v>1335.799553443795</v>
+        <v>1299.952780813051</v>
       </c>
       <c r="O12" t="n">
-        <v>1380.722538783602</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="P12" t="n">
         <v>1622.966287987609</v>
@@ -5142,28 +5144,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R12" t="n">
-        <v>1622.966287987609</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="S12" t="n">
-        <v>1622.966287987609</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="T12" t="n">
-        <v>1622.966287987609</v>
+        <v>1173.163483952</v>
       </c>
       <c r="U12" t="n">
-        <v>1622.966287987609</v>
+        <v>944.9608164894781</v>
       </c>
       <c r="V12" t="n">
-        <v>1622.966287987609</v>
+        <v>709.8087082577354</v>
       </c>
       <c r="W12" t="n">
-        <v>1573.487221477489</v>
+        <v>709.8087082577354</v>
       </c>
       <c r="X12" t="n">
-        <v>1365.635721271956</v>
+        <v>501.9572080522025</v>
       </c>
       <c r="Y12" t="n">
-        <v>1157.875422507002</v>
+        <v>294.1969092872486</v>
       </c>
     </row>
     <row r="13">
@@ -5173,34 +5175,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>361.2466016029501</v>
+        <v>129.4902764300189</v>
       </c>
       <c r="C13" t="n">
-        <v>361.2466016029501</v>
+        <v>129.4902764300189</v>
       </c>
       <c r="D13" t="n">
-        <v>361.2466016029501</v>
+        <v>129.4902764300189</v>
       </c>
       <c r="E13" t="n">
-        <v>361.2466016029501</v>
+        <v>129.4902764300189</v>
       </c>
       <c r="F13" t="n">
-        <v>361.2466016029501</v>
+        <v>129.4902764300189</v>
       </c>
       <c r="G13" t="n">
-        <v>361.2466016029501</v>
+        <v>129.4902764300189</v>
       </c>
       <c r="H13" t="n">
-        <v>256.8779464865154</v>
+        <v>129.4902764300189</v>
       </c>
       <c r="I13" t="n">
         <v>107.8860696601711</v>
       </c>
       <c r="J13" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K13" t="n">
-        <v>40.81344334191285</v>
+        <v>40.81344334191284</v>
       </c>
       <c r="L13" t="n">
         <v>107.0302722280248</v>
@@ -5218,31 +5220,31 @@
         <v>361.2466016029501</v>
       </c>
       <c r="Q13" t="n">
-        <v>361.2466016029501</v>
+        <v>296.5701361642185</v>
       </c>
       <c r="R13" t="n">
-        <v>361.2466016029501</v>
+        <v>129.4902764300189</v>
       </c>
       <c r="S13" t="n">
-        <v>361.2466016029501</v>
+        <v>129.4902764300189</v>
       </c>
       <c r="T13" t="n">
-        <v>361.2466016029501</v>
+        <v>129.4902764300189</v>
       </c>
       <c r="U13" t="n">
-        <v>361.2466016029501</v>
+        <v>129.4902764300189</v>
       </c>
       <c r="V13" t="n">
-        <v>361.2466016029501</v>
+        <v>129.4902764300189</v>
       </c>
       <c r="W13" t="n">
-        <v>361.2466016029501</v>
+        <v>129.4902764300189</v>
       </c>
       <c r="X13" t="n">
-        <v>361.2466016029501</v>
+        <v>129.4902764300189</v>
       </c>
       <c r="Y13" t="n">
-        <v>361.2466016029501</v>
+        <v>129.4902764300189</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1622.966287987609</v>
+        <v>348.5582999135143</v>
       </c>
       <c r="C14" t="n">
-        <v>1622.966287987609</v>
+        <v>348.5582999135143</v>
       </c>
       <c r="D14" t="n">
-        <v>1622.966287987609</v>
+        <v>348.5582999135143</v>
       </c>
       <c r="E14" t="n">
-        <v>1237.178035389365</v>
+        <v>348.5582999135143</v>
       </c>
       <c r="F14" t="n">
-        <v>827.338063675322</v>
+        <v>348.5582999135143</v>
       </c>
       <c r="G14" t="n">
-        <v>417.4980919612793</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H14" t="n">
-        <v>80.68969224843016</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I14" t="n">
         <v>32.45932575975218</v>
@@ -5300,28 +5302,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R14" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="S14" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="T14" t="n">
-        <v>1622.966287987609</v>
+        <v>1286.226725594945</v>
       </c>
       <c r="U14" t="n">
-        <v>1622.966287987609</v>
+        <v>1032.389842527199</v>
       </c>
       <c r="V14" t="n">
-        <v>1622.966287987609</v>
+        <v>701.3269551836285</v>
       </c>
       <c r="W14" t="n">
-        <v>1622.966287987609</v>
+        <v>348.5582999135143</v>
       </c>
       <c r="X14" t="n">
-        <v>1622.966287987609</v>
+        <v>348.5582999135143</v>
       </c>
       <c r="Y14" t="n">
-        <v>1622.966287987609</v>
+        <v>348.5582999135143</v>
       </c>
     </row>
     <row r="15">
@@ -5331,19 +5333,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>800.0311509215306</v>
+        <v>39.95955255904698</v>
       </c>
       <c r="C15" t="n">
-        <v>625.5781216404037</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D15" t="n">
-        <v>476.6437119791524</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E15" t="n">
-        <v>317.4062569736969</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F15" t="n">
-        <v>170.8716990005819</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G15" t="n">
         <v>32.45932575975218</v>
@@ -5355,25 +5357,25 @@
         <v>32.45932575975218</v>
       </c>
       <c r="J15" t="n">
-        <v>32.45932575975218</v>
+        <v>61.20822116384403</v>
       </c>
       <c r="K15" t="n">
-        <v>32.45932575975218</v>
+        <v>201.1187329501917</v>
       </c>
       <c r="L15" t="n">
-        <v>330.1910807414154</v>
+        <v>498.8504879318549</v>
       </c>
       <c r="M15" t="n">
-        <v>729.6092173456783</v>
+        <v>898.2686245361178</v>
       </c>
       <c r="N15" t="n">
-        <v>1131.293373622612</v>
+        <v>1299.952780813051</v>
       </c>
       <c r="O15" t="n">
-        <v>1271.486777082839</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="P15" t="n">
-        <v>1513.730526286846</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q15" t="n">
         <v>1622.966287987609</v>
@@ -5388,19 +5390,19 @@
         <v>1173.163483952</v>
       </c>
       <c r="U15" t="n">
-        <v>1007.791449686485</v>
+        <v>944.9608164894781</v>
       </c>
       <c r="V15" t="n">
-        <v>1007.791449686485</v>
+        <v>709.8087082577354</v>
       </c>
       <c r="W15" t="n">
-        <v>1007.791449686485</v>
+        <v>455.5713515295337</v>
       </c>
       <c r="X15" t="n">
-        <v>1007.791449686485</v>
+        <v>247.7198513240009</v>
       </c>
       <c r="Y15" t="n">
-        <v>800.0311509215306</v>
+        <v>39.95955255904698</v>
       </c>
     </row>
     <row r="16">
@@ -5443,40 +5445,40 @@
         <v>107.0302722280248</v>
       </c>
       <c r="M16" t="n">
-        <v>187.2357570984439</v>
+        <v>187.235757098444</v>
       </c>
       <c r="N16" t="n">
         <v>270.9687512285709</v>
       </c>
       <c r="O16" t="n">
-        <v>332.2934283710736</v>
+        <v>332.2934283710737</v>
       </c>
       <c r="P16" t="n">
-        <v>361.24660160295</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Q16" t="n">
-        <v>361.24660160295</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="R16" t="n">
-        <v>361.24660160295</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S16" t="n">
-        <v>361.24660160295</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T16" t="n">
-        <v>361.24660160295</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U16" t="n">
-        <v>361.24660160295</v>
+        <v>72.05002336285361</v>
       </c>
       <c r="V16" t="n">
-        <v>361.24660160295</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="W16" t="n">
-        <v>361.24660160295</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="X16" t="n">
-        <v>253.2519049032823</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="Y16" t="n">
         <v>32.45932575975218</v>
@@ -5489,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1622.966287987609</v>
+        <v>150.9897000805379</v>
       </c>
       <c r="C17" t="n">
-        <v>1622.966287987609</v>
+        <v>150.9897000805379</v>
       </c>
       <c r="D17" t="n">
-        <v>1622.966287987609</v>
+        <v>150.9897000805379</v>
       </c>
       <c r="E17" t="n">
-        <v>1237.178035389365</v>
+        <v>150.9897000805379</v>
       </c>
       <c r="F17" t="n">
-        <v>827.338063675322</v>
+        <v>150.9897000805379</v>
       </c>
       <c r="G17" t="n">
-        <v>417.4980919612793</v>
+        <v>150.9897000805379</v>
       </c>
       <c r="H17" t="n">
-        <v>80.68969224843016</v>
+        <v>150.9897000805379</v>
       </c>
       <c r="I17" t="n">
         <v>32.45932575975218</v>
@@ -5537,28 +5539,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R17" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="S17" t="n">
-        <v>1622.966287987609</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="T17" t="n">
-        <v>1622.966287987609</v>
+        <v>1088.658125761969</v>
       </c>
       <c r="U17" t="n">
-        <v>1622.966287987609</v>
+        <v>834.8212426942227</v>
       </c>
       <c r="V17" t="n">
-        <v>1622.966287987609</v>
+        <v>503.7583553506521</v>
       </c>
       <c r="W17" t="n">
-        <v>1622.966287987609</v>
+        <v>150.9897000805379</v>
       </c>
       <c r="X17" t="n">
-        <v>1622.966287987609</v>
+        <v>150.9897000805379</v>
       </c>
       <c r="Y17" t="n">
-        <v>1622.966287987609</v>
+        <v>150.9897000805379</v>
       </c>
     </row>
     <row r="18">
@@ -5568,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>651.0967412602795</v>
+        <v>989.6600854869342</v>
       </c>
       <c r="C18" t="n">
-        <v>476.6437119791524</v>
+        <v>815.2070562058072</v>
       </c>
       <c r="D18" t="n">
-        <v>476.6437119791524</v>
+        <v>666.272646544556</v>
       </c>
       <c r="E18" t="n">
-        <v>317.4062569736969</v>
+        <v>507.0351915391004</v>
       </c>
       <c r="F18" t="n">
-        <v>170.8716990005819</v>
+        <v>360.5006335659854</v>
       </c>
       <c r="G18" t="n">
-        <v>32.45932575975218</v>
+        <v>222.0882603251556</v>
       </c>
       <c r="H18" t="n">
-        <v>32.45932575975218</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="I18" t="n">
         <v>32.45932575975218</v>
@@ -5595,49 +5597,49 @@
         <v>61.20822116384403</v>
       </c>
       <c r="K18" t="n">
-        <v>61.20822116384403</v>
+        <v>236.9655055809357</v>
       </c>
       <c r="L18" t="n">
-        <v>358.9399761455072</v>
+        <v>534.6972605625989</v>
       </c>
       <c r="M18" t="n">
-        <v>656.0248753321102</v>
+        <v>934.1153971668618</v>
       </c>
       <c r="N18" t="n">
-        <v>1057.709031609043</v>
+        <v>948.4732699082806</v>
       </c>
       <c r="O18" t="n">
-        <v>1380.722538783602</v>
+        <v>1271.486777082839</v>
       </c>
       <c r="P18" t="n">
-        <v>1622.966287987609</v>
+        <v>1513.730526286846</v>
       </c>
       <c r="Q18" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R18" t="n">
-        <v>1622.966287987609</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="S18" t="n">
-        <v>1622.966287987609</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="T18" t="n">
-        <v>1622.966287987609</v>
+        <v>1173.163483952</v>
       </c>
       <c r="U18" t="n">
-        <v>1622.966287987609</v>
+        <v>1173.163483952</v>
       </c>
       <c r="V18" t="n">
-        <v>1489.161233979036</v>
+        <v>1173.163483952</v>
       </c>
       <c r="W18" t="n">
-        <v>1234.923877250834</v>
+        <v>1173.163483952</v>
       </c>
       <c r="X18" t="n">
-        <v>1027.072377045301</v>
+        <v>1173.163483952</v>
       </c>
       <c r="Y18" t="n">
-        <v>819.3120782803476</v>
+        <v>1157.875422507002</v>
       </c>
     </row>
     <row r="19">
@@ -5701,13 +5703,13 @@
         <v>361.2466016029501</v>
       </c>
       <c r="T19" t="n">
-        <v>132.1392625228377</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U19" t="n">
-        <v>132.1392625228377</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="V19" t="n">
-        <v>32.45932575975218</v>
+        <v>106.5621133970632</v>
       </c>
       <c r="W19" t="n">
         <v>32.45932575975218</v>
@@ -5726,40 +5728,40 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1286.226725594945</v>
+        <v>160.4657845659694</v>
       </c>
       <c r="C20" t="n">
-        <v>1286.226725594945</v>
+        <v>160.4657845659694</v>
       </c>
       <c r="D20" t="n">
-        <v>1286.226725594945</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E20" t="n">
-        <v>1286.226725594945</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F20" t="n">
-        <v>876.3867538809022</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G20" t="n">
-        <v>466.5467821668595</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H20" t="n">
-        <v>129.7383824540104</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I20" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J20" t="n">
-        <v>70.13987180521497</v>
+        <v>70.13987180521505</v>
       </c>
       <c r="K20" t="n">
         <v>247.3580469011318</v>
       </c>
       <c r="L20" t="n">
-        <v>519.4894913528325</v>
+        <v>519.4894913528324</v>
       </c>
       <c r="M20" t="n">
-        <v>838.8947028941456</v>
+        <v>838.8947028941453</v>
       </c>
       <c r="N20" t="n">
         <v>1148.836227140252</v>
@@ -5774,28 +5776,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R20" t="n">
-        <v>1508.970645214177</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="S20" t="n">
-        <v>1508.970645214177</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="T20" t="n">
-        <v>1286.226725594945</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="U20" t="n">
-        <v>1286.226725594945</v>
+        <v>1255.133762146432</v>
       </c>
       <c r="V20" t="n">
-        <v>1286.226725594945</v>
+        <v>924.0708748028611</v>
       </c>
       <c r="W20" t="n">
-        <v>1286.226725594945</v>
+        <v>924.0708748028611</v>
       </c>
       <c r="X20" t="n">
-        <v>1286.226725594945</v>
+        <v>550.6051165417812</v>
       </c>
       <c r="Y20" t="n">
-        <v>1286.226725594945</v>
+        <v>160.4657845659694</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>989.6600854869342</v>
+        <v>321.5470195745886</v>
       </c>
       <c r="C21" t="n">
-        <v>815.2070562058072</v>
+        <v>147.0939902934616</v>
       </c>
       <c r="D21" t="n">
-        <v>666.272646544556</v>
+        <v>147.0939902934616</v>
       </c>
       <c r="E21" t="n">
-        <v>507.0351915391004</v>
+        <v>147.0939902934616</v>
       </c>
       <c r="F21" t="n">
-        <v>360.5006335659854</v>
+        <v>147.0939902934616</v>
       </c>
       <c r="G21" t="n">
-        <v>222.0882603251556</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="H21" t="n">
         <v>111.7947023326189</v>
       </c>
       <c r="I21" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J21" t="n">
-        <v>32.45932575975218</v>
+        <v>61.20822116384403</v>
       </c>
       <c r="K21" t="n">
-        <v>208.2166101768439</v>
+        <v>61.20822116384403</v>
       </c>
       <c r="L21" t="n">
-        <v>505.948365158507</v>
+        <v>147.3709770270848</v>
       </c>
       <c r="M21" t="n">
-        <v>546.7891136313474</v>
+        <v>546.7891136313477</v>
       </c>
       <c r="N21" t="n">
-        <v>948.4732699082806</v>
+        <v>948.4732699082811</v>
       </c>
       <c r="O21" t="n">
         <v>1271.486777082839</v>
       </c>
       <c r="P21" t="n">
-        <v>1513.730526286846</v>
+        <v>1513.730526286847</v>
       </c>
       <c r="Q21" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R21" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S21" t="n">
-        <v>1374.066492846507</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T21" t="n">
-        <v>1173.163483952</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U21" t="n">
-        <v>1173.163483952</v>
+        <v>1394.763620525088</v>
       </c>
       <c r="V21" t="n">
-        <v>1173.163483952</v>
+        <v>1159.611512293345</v>
       </c>
       <c r="W21" t="n">
-        <v>1173.163483952</v>
+        <v>905.3741555651434</v>
       </c>
       <c r="X21" t="n">
-        <v>1173.163483952</v>
+        <v>697.5226553596106</v>
       </c>
       <c r="Y21" t="n">
-        <v>1157.875422507002</v>
+        <v>489.7623565946566</v>
       </c>
     </row>
     <row r="22">
@@ -5884,34 +5886,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="C22" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D22" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E22" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F22" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G22" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H22" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I22" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J22" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K22" t="n">
-        <v>40.81344334191284</v>
+        <v>40.81344334191285</v>
       </c>
       <c r="L22" t="n">
         <v>107.0302722280248</v>
@@ -5938,22 +5940,22 @@
         <v>361.2466016029501</v>
       </c>
       <c r="T22" t="n">
-        <v>321.6559039998486</v>
+        <v>132.1392625228377</v>
       </c>
       <c r="U22" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="V22" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="W22" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="X22" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="Y22" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
     </row>
     <row r="23">
@@ -5963,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>401.4218427001639</v>
+        <v>472.7613576865958</v>
       </c>
       <c r="C23" t="n">
-        <v>32.45932575975218</v>
+        <v>103.7988407461841</v>
       </c>
       <c r="D23" t="n">
         <v>32.45932575975218</v>
@@ -5987,16 +5989,16 @@
         <v>32.45932575975218</v>
       </c>
       <c r="J23" t="n">
-        <v>70.13987180521497</v>
+        <v>70.13987180521508</v>
       </c>
       <c r="K23" t="n">
         <v>247.3580469011318</v>
       </c>
       <c r="L23" t="n">
-        <v>519.4894913528325</v>
+        <v>519.4894913528326</v>
       </c>
       <c r="M23" t="n">
-        <v>838.8947028941456</v>
+        <v>838.8947028941457</v>
       </c>
       <c r="N23" t="n">
         <v>1148.836227140252</v>
@@ -6026,13 +6028,13 @@
         <v>1622.966287987609</v>
       </c>
       <c r="W23" t="n">
-        <v>1551.626773001177</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="X23" t="n">
-        <v>1178.161014740097</v>
+        <v>1249.500529726529</v>
       </c>
       <c r="Y23" t="n">
-        <v>788.0216827642857</v>
+        <v>859.3611977507176</v>
       </c>
     </row>
     <row r="24">
@@ -6042,19 +6044,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>661.618777680701</v>
+        <v>121.3571126583155</v>
       </c>
       <c r="C24" t="n">
-        <v>487.165748399574</v>
+        <v>121.3571126583155</v>
       </c>
       <c r="D24" t="n">
-        <v>338.2313387383227</v>
+        <v>121.3571126583155</v>
       </c>
       <c r="E24" t="n">
-        <v>178.9938837328672</v>
+        <v>121.3571126583155</v>
       </c>
       <c r="F24" t="n">
-        <v>32.45932575975218</v>
+        <v>121.3571126583155</v>
       </c>
       <c r="G24" t="n">
         <v>32.45932575975218</v>
@@ -6066,25 +6068,25 @@
         <v>32.45932575975218</v>
       </c>
       <c r="J24" t="n">
-        <v>61.20822116384403</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K24" t="n">
-        <v>236.9655055809357</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="L24" t="n">
-        <v>534.6972605625989</v>
+        <v>256.6067387278472</v>
       </c>
       <c r="M24" t="n">
-        <v>934.1153971668618</v>
+        <v>656.0248753321102</v>
       </c>
       <c r="N24" t="n">
-        <v>948.4732699082806</v>
+        <v>1057.709031609043</v>
       </c>
       <c r="O24" t="n">
-        <v>1271.486777082839</v>
+        <v>1380.722538783602</v>
       </c>
       <c r="P24" t="n">
-        <v>1513.730526286846</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q24" t="n">
         <v>1622.966287987609</v>
@@ -6093,25 +6095,25 @@
         <v>1622.966287987609</v>
       </c>
       <c r="S24" t="n">
-        <v>1499.683270399457</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="T24" t="n">
-        <v>1499.683270399457</v>
+        <v>1254.561044051268</v>
       </c>
       <c r="U24" t="n">
-        <v>1499.683270399457</v>
+        <v>1026.358376588747</v>
       </c>
       <c r="V24" t="n">
-        <v>1499.683270399457</v>
+        <v>791.2062683570039</v>
       </c>
       <c r="W24" t="n">
-        <v>1245.445913671256</v>
+        <v>536.9689116288023</v>
       </c>
       <c r="X24" t="n">
-        <v>1037.594413465723</v>
+        <v>329.1174114232695</v>
       </c>
       <c r="Y24" t="n">
-        <v>829.8341147007691</v>
+        <v>121.3571126583155</v>
       </c>
     </row>
     <row r="25">
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="C25" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D25" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E25" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F25" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G25" t="n">
-        <v>342.9433419838693</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H25" t="n">
-        <v>181.4512025860964</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I25" t="n">
         <v>32.45932575975218</v>
@@ -6184,13 +6186,13 @@
         <v>361.2466016029501</v>
       </c>
       <c r="W25" t="n">
-        <v>361.2466016029501</v>
+        <v>71.82943156598952</v>
       </c>
       <c r="X25" t="n">
-        <v>361.2466016029501</v>
+        <v>71.82943156598952</v>
       </c>
       <c r="Y25" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975218</v>
       </c>
     </row>
     <row r="26">
@@ -6200,40 +6202,40 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>883.5977926533733</v>
+        <v>401.4218427001639</v>
       </c>
       <c r="C26" t="n">
-        <v>883.5977926533733</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D26" t="n">
-        <v>525.3320940466228</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E26" t="n">
-        <v>139.5438414483786</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F26" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G26" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H26" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I26" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J26" t="n">
-        <v>70.13987180521505</v>
+        <v>70.13987180521485</v>
       </c>
       <c r="K26" t="n">
-        <v>247.3580469011318</v>
+        <v>247.358046901132</v>
       </c>
       <c r="L26" t="n">
-        <v>519.4894913528324</v>
+        <v>519.4894913528326</v>
       </c>
       <c r="M26" t="n">
-        <v>838.8947028941454</v>
+        <v>838.8947028941458</v>
       </c>
       <c r="N26" t="n">
         <v>1148.836227140252</v>
@@ -6248,28 +6250,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R26" t="n">
-        <v>1622.966287987609</v>
+        <v>1551.626773001177</v>
       </c>
       <c r="S26" t="n">
-        <v>1622.966287987609</v>
+        <v>1551.626773001177</v>
       </c>
       <c r="T26" t="n">
-        <v>1622.966287987609</v>
+        <v>1551.626773001177</v>
       </c>
       <c r="U26" t="n">
-        <v>1622.966287987609</v>
+        <v>1551.626773001177</v>
       </c>
       <c r="V26" t="n">
-        <v>1622.966287987609</v>
+        <v>1551.626773001177</v>
       </c>
       <c r="W26" t="n">
-        <v>1270.197632717495</v>
+        <v>1551.626773001177</v>
       </c>
       <c r="X26" t="n">
-        <v>1270.197632717495</v>
+        <v>1178.161014740097</v>
       </c>
       <c r="Y26" t="n">
-        <v>1270.197632717495</v>
+        <v>788.0216827642857</v>
       </c>
     </row>
     <row r="27">
@@ -6279,28 +6281,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>957.7415918977861</v>
+        <v>476.6437119791524</v>
       </c>
       <c r="C27" t="n">
-        <v>783.2885626166591</v>
+        <v>476.6437119791524</v>
       </c>
       <c r="D27" t="n">
-        <v>634.3541529554078</v>
+        <v>476.6437119791524</v>
       </c>
       <c r="E27" t="n">
-        <v>475.1166979499523</v>
+        <v>317.4062569736969</v>
       </c>
       <c r="F27" t="n">
-        <v>328.5821399768373</v>
+        <v>170.8716990005819</v>
       </c>
       <c r="G27" t="n">
-        <v>190.1697667360075</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H27" t="n">
-        <v>79.87620874347081</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I27" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J27" t="n">
         <v>61.20822116384403</v>
@@ -6309,46 +6311,46 @@
         <v>236.9655055809357</v>
       </c>
       <c r="L27" t="n">
-        <v>534.6972605625989</v>
+        <v>236.9655055809357</v>
       </c>
       <c r="M27" t="n">
-        <v>934.1153971668618</v>
+        <v>636.3836421851986</v>
       </c>
       <c r="N27" t="n">
-        <v>948.4732699082806</v>
+        <v>1038.067798462132</v>
       </c>
       <c r="O27" t="n">
-        <v>1271.486777082839</v>
+        <v>1361.08130563669</v>
       </c>
       <c r="P27" t="n">
-        <v>1513.730526286846</v>
+        <v>1603.325054840698</v>
       </c>
       <c r="Q27" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R27" t="n">
-        <v>1541.568727888341</v>
+        <v>1562.641088337959</v>
       </c>
       <c r="S27" t="n">
-        <v>1541.568727888341</v>
+        <v>1395.138853296125</v>
       </c>
       <c r="T27" t="n">
-        <v>1541.568727888341</v>
+        <v>1194.235844401619</v>
       </c>
       <c r="U27" t="n">
-        <v>1541.568727888341</v>
+        <v>966.0331769390968</v>
       </c>
       <c r="V27" t="n">
-        <v>1541.568727888341</v>
+        <v>730.8810687073541</v>
       </c>
       <c r="W27" t="n">
-        <v>1541.568727888341</v>
+        <v>476.6437119791524</v>
       </c>
       <c r="X27" t="n">
-        <v>1333.717227682808</v>
+        <v>476.6437119791524</v>
       </c>
       <c r="Y27" t="n">
-        <v>1125.956928917854</v>
+        <v>476.6437119791524</v>
       </c>
     </row>
     <row r="28">
@@ -6358,34 +6360,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="C28" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D28" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E28" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F28" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G28" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H28" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I28" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J28" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K28" t="n">
-        <v>40.81344334191284</v>
+        <v>40.81344334191285</v>
       </c>
       <c r="L28" t="n">
         <v>107.0302722280248</v>
@@ -6409,25 +6411,25 @@
         <v>361.2466016029501</v>
       </c>
       <c r="S28" t="n">
-        <v>361.2466016029501</v>
+        <v>321.8764957967128</v>
       </c>
       <c r="T28" t="n">
-        <v>361.2466016029501</v>
+        <v>321.8764957967128</v>
       </c>
       <c r="U28" t="n">
-        <v>361.2466016029501</v>
+        <v>321.8764957967128</v>
       </c>
       <c r="V28" t="n">
-        <v>361.2466016029501</v>
+        <v>321.8764957967128</v>
       </c>
       <c r="W28" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="X28" t="n">
-        <v>253.2519049032823</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="Y28" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
     </row>
     <row r="29">
@@ -6437,40 +6439,40 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1013.622528304255</v>
+        <v>1122.370805150056</v>
       </c>
       <c r="C29" t="n">
-        <v>644.6600113638435</v>
+        <v>753.4082882096438</v>
       </c>
       <c r="D29" t="n">
-        <v>442.2992974737948</v>
+        <v>395.1425896028933</v>
       </c>
       <c r="E29" t="n">
-        <v>442.2992974737948</v>
+        <v>369.2677254726013</v>
       </c>
       <c r="F29" t="n">
-        <v>32.45932575975204</v>
+        <v>369.2677254726013</v>
       </c>
       <c r="G29" t="n">
-        <v>32.45932575975204</v>
+        <v>369.2677254726013</v>
       </c>
       <c r="H29" t="n">
-        <v>32.45932575975204</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I29" t="n">
-        <v>32.45932575975204</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J29" t="n">
-        <v>70.13987180521491</v>
+        <v>70.13987180521505</v>
       </c>
       <c r="K29" t="n">
-        <v>247.3580469011317</v>
+        <v>247.3580469011318</v>
       </c>
       <c r="L29" t="n">
-        <v>519.4894913528324</v>
+        <v>519.4894913528325</v>
       </c>
       <c r="M29" t="n">
-        <v>838.8947028941453</v>
+        <v>838.8947028941454</v>
       </c>
       <c r="N29" t="n">
         <v>1148.836227140252</v>
@@ -6485,28 +6487,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R29" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="S29" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="T29" t="n">
-        <v>1400.222368368377</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="U29" t="n">
-        <v>1400.222368368377</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="V29" t="n">
-        <v>1400.222368368377</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="W29" t="n">
-        <v>1400.222368368377</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="X29" t="n">
-        <v>1400.222368368377</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="Y29" t="n">
-        <v>1400.222368368377</v>
+        <v>1508.970645214177</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>206.9123550408792</v>
+        <v>502.6012262750781</v>
       </c>
       <c r="C30" t="n">
-        <v>32.45932575975218</v>
+        <v>502.6012262750781</v>
       </c>
       <c r="D30" t="n">
-        <v>32.45932575975218</v>
+        <v>502.6012262750781</v>
       </c>
       <c r="E30" t="n">
-        <v>32.45932575975218</v>
+        <v>343.3637712696226</v>
       </c>
       <c r="F30" t="n">
-        <v>32.45932575975218</v>
+        <v>281.1652569931187</v>
       </c>
       <c r="G30" t="n">
-        <v>32.45932575975218</v>
+        <v>142.7528837522889</v>
       </c>
       <c r="H30" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I30" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J30" t="n">
-        <v>61.20822116384403</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K30" t="n">
-        <v>61.20822116384403</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="L30" t="n">
-        <v>147.3709770270845</v>
+        <v>330.1910807414154</v>
       </c>
       <c r="M30" t="n">
-        <v>546.7891136313474</v>
+        <v>729.6092173456783</v>
       </c>
       <c r="N30" t="n">
-        <v>948.4732699082806</v>
+        <v>1057.709031609044</v>
       </c>
       <c r="O30" t="n">
-        <v>1271.486777082839</v>
+        <v>1380.722538783602</v>
       </c>
       <c r="P30" t="n">
-        <v>1513.730526286846</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q30" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R30" t="n">
-        <v>1622.966287987609</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="S30" t="n">
-        <v>1501.474333583453</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="T30" t="n">
-        <v>1300.571324688946</v>
+        <v>1340.665718993834</v>
       </c>
       <c r="U30" t="n">
-        <v>1072.368657226424</v>
+        <v>1340.665718993834</v>
       </c>
       <c r="V30" t="n">
-        <v>837.2165489946817</v>
+        <v>1340.665718993834</v>
       </c>
       <c r="W30" t="n">
-        <v>582.97919226648</v>
+        <v>1086.428362265633</v>
       </c>
       <c r="X30" t="n">
-        <v>375.1276920609472</v>
+        <v>878.5768620601</v>
       </c>
       <c r="Y30" t="n">
-        <v>375.1276920609472</v>
+        <v>670.8165632951461</v>
       </c>
     </row>
     <row r="31">
@@ -6595,31 +6597,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1622.966287987609</v>
+        <v>1463.599890474927</v>
       </c>
       <c r="C31" t="n">
-        <v>1454.030105059702</v>
+        <v>1463.599890474927</v>
       </c>
       <c r="D31" t="n">
-        <v>1303.913465647367</v>
+        <v>1463.599890474927</v>
       </c>
       <c r="E31" t="n">
-        <v>1294.179012144411</v>
+        <v>1463.599890474927</v>
       </c>
       <c r="F31" t="n">
-        <v>1294.179012144411</v>
+        <v>1463.599890474927</v>
       </c>
       <c r="G31" t="n">
-        <v>1294.179012144411</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="H31" t="n">
-        <v>1294.179012144411</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="I31" t="n">
-        <v>1294.179012144411</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="J31" t="n">
-        <v>1294.179012144411</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="K31" t="n">
         <v>1302.533129726572</v>
@@ -6649,22 +6651,22 @@
         <v>1622.966287987609</v>
       </c>
       <c r="T31" t="n">
-        <v>1622.966287987609</v>
+        <v>1463.599890474927</v>
       </c>
       <c r="U31" t="n">
-        <v>1622.966287987609</v>
+        <v>1463.599890474927</v>
       </c>
       <c r="V31" t="n">
-        <v>1622.966287987609</v>
+        <v>1463.599890474927</v>
       </c>
       <c r="W31" t="n">
-        <v>1622.966287987609</v>
+        <v>1463.599890474927</v>
       </c>
       <c r="X31" t="n">
-        <v>1622.966287987609</v>
+        <v>1463.599890474927</v>
       </c>
       <c r="Y31" t="n">
-        <v>1622.966287987609</v>
+        <v>1463.599890474927</v>
       </c>
     </row>
     <row r="32">
@@ -6674,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="C32" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D32" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E32" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F32" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G32" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H32" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I32" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J32" t="n">
         <v>70.13987180521505</v>
@@ -6722,22 +6724,22 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R32" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="S32" t="n">
-        <v>1622.966287987609</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="T32" t="n">
-        <v>1622.966287987609</v>
+        <v>1088.658125761969</v>
       </c>
       <c r="U32" t="n">
-        <v>1369.129404919863</v>
+        <v>834.8212426942227</v>
       </c>
       <c r="V32" t="n">
-        <v>1145.293579355068</v>
+        <v>503.7583553506521</v>
       </c>
       <c r="W32" t="n">
-        <v>792.5249240849539</v>
+        <v>419.059165823874</v>
       </c>
       <c r="X32" t="n">
         <v>419.059165823874</v>
@@ -6753,43 +6755,43 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>206.9123550408792</v>
+        <v>321.5470195745886</v>
       </c>
       <c r="C33" t="n">
-        <v>32.45932575975218</v>
+        <v>147.0939902934616</v>
       </c>
       <c r="D33" t="n">
-        <v>32.45932575975218</v>
+        <v>147.0939902934616</v>
       </c>
       <c r="E33" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F33" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G33" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H33" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I33" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J33" t="n">
-        <v>61.20822116384403</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K33" t="n">
-        <v>236.9655055809357</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="L33" t="n">
-        <v>534.6972605625989</v>
+        <v>330.1910807414154</v>
       </c>
       <c r="M33" t="n">
-        <v>934.1153971668618</v>
+        <v>729.6092173456783</v>
       </c>
       <c r="N33" t="n">
-        <v>1057.709031609043</v>
+        <v>1057.709031609044</v>
       </c>
       <c r="O33" t="n">
         <v>1380.722538783602</v>
@@ -6804,25 +6806,25 @@
         <v>1622.966287987609</v>
       </c>
       <c r="S33" t="n">
-        <v>1541.019295328339</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T33" t="n">
-        <v>1340.116286433832</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U33" t="n">
-        <v>1111.91361897131</v>
+        <v>1394.763620525088</v>
       </c>
       <c r="V33" t="n">
-        <v>876.7615107395675</v>
+        <v>1159.611512293345</v>
       </c>
       <c r="W33" t="n">
-        <v>622.5241540113659</v>
+        <v>905.3741555651434</v>
       </c>
       <c r="X33" t="n">
-        <v>414.6726538058331</v>
+        <v>697.5226553596106</v>
       </c>
       <c r="Y33" t="n">
-        <v>206.9123550408792</v>
+        <v>489.7623565946566</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="C34" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="D34" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="E34" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="F34" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="G34" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="H34" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="I34" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="J34" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="K34" t="n">
-        <v>40.81344334191284</v>
+        <v>1302.533129726572</v>
       </c>
       <c r="L34" t="n">
-        <v>107.0302722280248</v>
+        <v>1368.749958612684</v>
       </c>
       <c r="M34" t="n">
-        <v>187.235757098444</v>
+        <v>1448.955443483103</v>
       </c>
       <c r="N34" t="n">
-        <v>270.9687512285709</v>
+        <v>1532.68843761323</v>
       </c>
       <c r="O34" t="n">
-        <v>332.2934283710737</v>
+        <v>1594.013114755733</v>
       </c>
       <c r="P34" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q34" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R34" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S34" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T34" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U34" t="n">
-        <v>72.05002336285361</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V34" t="n">
-        <v>32.45932575975218</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="W34" t="n">
-        <v>32.45932575975218</v>
+        <v>1333.549117950649</v>
       </c>
       <c r="X34" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="Y34" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144412</v>
       </c>
     </row>
     <row r="35">
@@ -6911,40 +6913,40 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>846.2271159476757</v>
+        <v>89.0881844258663</v>
       </c>
       <c r="C35" t="n">
-        <v>846.2271159476757</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D35" t="n">
-        <v>487.9614173409252</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E35" t="n">
-        <v>487.9614173409252</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F35" t="n">
-        <v>487.9614173409252</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G35" t="n">
-        <v>487.9614173409252</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H35" t="n">
-        <v>222.1153555684087</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I35" t="n">
         <v>32.45932575975218</v>
       </c>
       <c r="J35" t="n">
-        <v>70.13987180521485</v>
+        <v>70.13987180521505</v>
       </c>
       <c r="K35" t="n">
-        <v>247.3580469011315</v>
+        <v>247.3580469011318</v>
       </c>
       <c r="L35" t="n">
-        <v>519.4894913528321</v>
+        <v>519.4894913528324</v>
       </c>
       <c r="M35" t="n">
-        <v>838.8947028941452</v>
+        <v>838.8947028941454</v>
       </c>
       <c r="N35" t="n">
         <v>1148.836227140252</v>
@@ -6965,22 +6967,22 @@
         <v>1622.966287987609</v>
       </c>
       <c r="T35" t="n">
-        <v>1622.966287987609</v>
+        <v>1400.222368368377</v>
       </c>
       <c r="U35" t="n">
-        <v>1622.966287987609</v>
+        <v>1146.385485300631</v>
       </c>
       <c r="V35" t="n">
-        <v>1622.966287987609</v>
+        <v>815.3225979570603</v>
       </c>
       <c r="W35" t="n">
-        <v>1622.966287987609</v>
+        <v>462.5539426869462</v>
       </c>
       <c r="X35" t="n">
-        <v>1622.966287987609</v>
+        <v>89.0881844258663</v>
       </c>
       <c r="Y35" t="n">
-        <v>1232.826956011797</v>
+        <v>89.0881844258663</v>
       </c>
     </row>
     <row r="36">
@@ -6990,16 +6992,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>661.618777680701</v>
+        <v>288.8593477001497</v>
       </c>
       <c r="C36" t="n">
-        <v>487.165748399574</v>
+        <v>114.4063184190227</v>
       </c>
       <c r="D36" t="n">
-        <v>338.2313387383227</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E36" t="n">
-        <v>178.9938837328672</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F36" t="n">
         <v>32.45932575975218</v>
@@ -7026,10 +7028,10 @@
         <v>934.1153971668618</v>
       </c>
       <c r="N36" t="n">
-        <v>1057.709031609043</v>
+        <v>1299.952780813051</v>
       </c>
       <c r="O36" t="n">
-        <v>1380.722538783602</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="P36" t="n">
         <v>1622.966287987609</v>
@@ -7038,28 +7040,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R36" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S36" t="n">
-        <v>1374.066492846507</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T36" t="n">
-        <v>1374.066492846507</v>
+        <v>1422.063279093102</v>
       </c>
       <c r="U36" t="n">
-        <v>1374.066492846507</v>
+        <v>1193.860611630581</v>
       </c>
       <c r="V36" t="n">
-        <v>1138.914384614764</v>
+        <v>958.708503398838</v>
       </c>
       <c r="W36" t="n">
-        <v>884.6770278865624</v>
+        <v>704.4711466706365</v>
       </c>
       <c r="X36" t="n">
-        <v>869.3790764456548</v>
+        <v>496.6196464651036</v>
       </c>
       <c r="Y36" t="n">
-        <v>661.618777680701</v>
+        <v>288.8593477001497</v>
       </c>
     </row>
     <row r="37">
@@ -7069,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>139.6199360758254</v>
+        <v>179.5981367727104</v>
       </c>
       <c r="C37" t="n">
-        <v>139.6199360758254</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D37" t="n">
-        <v>139.6199360758254</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E37" t="n">
-        <v>139.6199360758254</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F37" t="n">
         <v>32.45932575975218</v>
@@ -7120,25 +7122,25 @@
         <v>361.2466016029501</v>
       </c>
       <c r="S37" t="n">
-        <v>139.6199360758254</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T37" t="n">
-        <v>139.6199360758254</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U37" t="n">
-        <v>139.6199360758254</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="V37" t="n">
-        <v>139.6199360758254</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="W37" t="n">
-        <v>139.6199360758254</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="X37" t="n">
-        <v>139.6199360758254</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Y37" t="n">
-        <v>139.6199360758254</v>
+        <v>361.2466016029501</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>222.1153555684087</v>
+        <v>779.107697186644</v>
       </c>
       <c r="C38" t="n">
-        <v>222.1153555684087</v>
+        <v>779.107697186644</v>
       </c>
       <c r="D38" t="n">
-        <v>222.1153555684087</v>
+        <v>779.107697186644</v>
       </c>
       <c r="E38" t="n">
-        <v>222.1153555684087</v>
+        <v>779.107697186644</v>
       </c>
       <c r="F38" t="n">
-        <v>222.1153555684087</v>
+        <v>779.107697186644</v>
       </c>
       <c r="G38" t="n">
-        <v>222.1153555684087</v>
+        <v>369.2677254726013</v>
       </c>
       <c r="H38" t="n">
-        <v>222.1153555684087</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I38" t="n">
         <v>32.45932575975218</v>
@@ -7178,10 +7180,10 @@
         <v>247.3580469011318</v>
       </c>
       <c r="L38" t="n">
-        <v>519.4894913528325</v>
+        <v>519.4894913528326</v>
       </c>
       <c r="M38" t="n">
-        <v>838.8947028941454</v>
+        <v>838.8947028941458</v>
       </c>
       <c r="N38" t="n">
         <v>1148.836227140252</v>
@@ -7196,28 +7198,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R38" t="n">
-        <v>1622.966287987609</v>
+        <v>1561.576067430937</v>
       </c>
       <c r="S38" t="n">
-        <v>1622.966287987609</v>
+        <v>1364.007467597961</v>
       </c>
       <c r="T38" t="n">
-        <v>1622.966287987609</v>
+        <v>1364.007467597961</v>
       </c>
       <c r="U38" t="n">
-        <v>1622.966287987609</v>
+        <v>1110.170584530215</v>
       </c>
       <c r="V38" t="n">
-        <v>1338.489101075414</v>
+        <v>779.107697186644</v>
       </c>
       <c r="W38" t="n">
-        <v>985.7204458053002</v>
+        <v>779.107697186644</v>
       </c>
       <c r="X38" t="n">
-        <v>612.2546875442204</v>
+        <v>779.107697186644</v>
       </c>
       <c r="Y38" t="n">
-        <v>222.1153555684087</v>
+        <v>779.107697186644</v>
       </c>
     </row>
     <row r="39">
@@ -7227,49 +7229,49 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>957.7415918977861</v>
+        <v>487.165748399574</v>
       </c>
       <c r="C39" t="n">
-        <v>783.2885626166591</v>
+        <v>487.165748399574</v>
       </c>
       <c r="D39" t="n">
-        <v>634.3541529554078</v>
+        <v>338.2313387383227</v>
       </c>
       <c r="E39" t="n">
-        <v>475.1166979499523</v>
+        <v>178.9938837328672</v>
       </c>
       <c r="F39" t="n">
-        <v>360.5006335659854</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G39" t="n">
-        <v>222.0882603251556</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H39" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I39" t="n">
         <v>32.45932575975218</v>
       </c>
       <c r="J39" t="n">
-        <v>32.45932575975218</v>
+        <v>61.20822116384403</v>
       </c>
       <c r="K39" t="n">
-        <v>172.6527292199793</v>
+        <v>61.20822116384403</v>
       </c>
       <c r="L39" t="n">
-        <v>470.3844842016425</v>
+        <v>358.9399761455072</v>
       </c>
       <c r="M39" t="n">
-        <v>869.8026208059055</v>
+        <v>758.3581127497702</v>
       </c>
       <c r="N39" t="n">
-        <v>1271.486777082839</v>
+        <v>1057.709031609043</v>
       </c>
       <c r="O39" t="n">
-        <v>1271.486777082839</v>
+        <v>1380.722538783602</v>
       </c>
       <c r="P39" t="n">
-        <v>1513.730526286846</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q39" t="n">
         <v>1622.966287987609</v>
@@ -7278,25 +7280,25 @@
         <v>1541.568727888341</v>
       </c>
       <c r="S39" t="n">
-        <v>1541.568727888341</v>
+        <v>1412.518179586994</v>
       </c>
       <c r="T39" t="n">
-        <v>1541.568727888341</v>
+        <v>1412.518179586994</v>
       </c>
       <c r="U39" t="n">
-        <v>1541.568727888341</v>
+        <v>1184.315512124472</v>
       </c>
       <c r="V39" t="n">
-        <v>1541.568727888341</v>
+        <v>949.1634038927295</v>
       </c>
       <c r="W39" t="n">
-        <v>1541.568727888341</v>
+        <v>694.926047164528</v>
       </c>
       <c r="X39" t="n">
-        <v>1333.717227682808</v>
+        <v>694.926047164528</v>
       </c>
       <c r="Y39" t="n">
-        <v>1125.956928917854</v>
+        <v>487.165748399574</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>71.82943156598947</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="C40" t="n">
-        <v>71.82943156598947</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="D40" t="n">
-        <v>71.82943156598947</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="E40" t="n">
-        <v>71.82943156598947</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="F40" t="n">
-        <v>71.82943156598947</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="G40" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="H40" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="I40" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="J40" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="K40" t="n">
-        <v>40.81344334191284</v>
+        <v>1302.533129726572</v>
       </c>
       <c r="L40" t="n">
-        <v>107.0302722280248</v>
+        <v>1368.749958612684</v>
       </c>
       <c r="M40" t="n">
-        <v>187.235757098444</v>
+        <v>1448.955443483103</v>
       </c>
       <c r="N40" t="n">
-        <v>270.9687512285709</v>
+        <v>1532.68843761323</v>
       </c>
       <c r="O40" t="n">
-        <v>332.2934283710737</v>
+        <v>1594.013114755733</v>
       </c>
       <c r="P40" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q40" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R40" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S40" t="n">
-        <v>361.2466016029501</v>
+        <v>1523.286351224524</v>
       </c>
       <c r="T40" t="n">
-        <v>361.2466016029501</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="U40" t="n">
-        <v>361.2466016029501</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="V40" t="n">
-        <v>361.2466016029501</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="W40" t="n">
-        <v>71.82943156598947</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="X40" t="n">
-        <v>71.82943156598947</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="Y40" t="n">
-        <v>71.82943156598947</v>
+        <v>1294.179012144411</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>32.45932575975218</v>
+        <v>1249.500529726529</v>
       </c>
       <c r="C41" t="n">
-        <v>32.45932575975218</v>
+        <v>1249.500529726529</v>
       </c>
       <c r="D41" t="n">
-        <v>32.45932575975218</v>
+        <v>1237.927521786082</v>
       </c>
       <c r="E41" t="n">
-        <v>32.45932575975218</v>
+        <v>852.1392691878377</v>
       </c>
       <c r="F41" t="n">
-        <v>32.45932575975218</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="G41" t="n">
         <v>32.45932575975218</v>
@@ -7433,28 +7435,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R41" t="n">
-        <v>1508.970645214177</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S41" t="n">
-        <v>1311.402045381201</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T41" t="n">
-        <v>1088.658125761969</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U41" t="n">
-        <v>834.8212426942227</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V41" t="n">
-        <v>503.7583553506521</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="W41" t="n">
-        <v>150.9897000805379</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="X41" t="n">
-        <v>150.9897000805379</v>
+        <v>1249.500529726529</v>
       </c>
       <c r="Y41" t="n">
-        <v>32.45932575975218</v>
+        <v>1249.500529726529</v>
       </c>
     </row>
     <row r="42">
@@ -7464,25 +7466,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>111.7947023326189</v>
+        <v>427.6998149662337</v>
       </c>
       <c r="C42" t="n">
-        <v>111.7947023326189</v>
+        <v>427.6998149662337</v>
       </c>
       <c r="D42" t="n">
-        <v>111.7947023326189</v>
+        <v>427.6998149662337</v>
       </c>
       <c r="E42" t="n">
-        <v>111.7947023326189</v>
+        <v>427.6998149662337</v>
       </c>
       <c r="F42" t="n">
-        <v>111.7947023326189</v>
+        <v>281.1652569931186</v>
       </c>
       <c r="G42" t="n">
-        <v>111.7947023326189</v>
+        <v>142.7528837522889</v>
       </c>
       <c r="H42" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I42" t="n">
         <v>32.45932575975218</v>
@@ -7491,19 +7493,19 @@
         <v>61.20822116384403</v>
       </c>
       <c r="K42" t="n">
-        <v>61.20822116384403</v>
+        <v>91.88297124942886</v>
       </c>
       <c r="L42" t="n">
-        <v>147.3709770270845</v>
+        <v>389.614726231092</v>
       </c>
       <c r="M42" t="n">
-        <v>546.7891136313474</v>
+        <v>789.032862835355</v>
       </c>
       <c r="N42" t="n">
-        <v>948.4732699082806</v>
+        <v>1190.717019112288</v>
       </c>
       <c r="O42" t="n">
-        <v>1271.486777082839</v>
+        <v>1513.730526286846</v>
       </c>
       <c r="P42" t="n">
         <v>1513.730526286846</v>
@@ -7512,28 +7514,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R42" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S42" t="n">
-        <v>1541.568727888341</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="T42" t="n">
-        <v>1340.665718993834</v>
+        <v>1254.561044051268</v>
       </c>
       <c r="U42" t="n">
-        <v>1112.463051531312</v>
+        <v>1026.358376588747</v>
       </c>
       <c r="V42" t="n">
-        <v>877.3109432995698</v>
+        <v>791.2062683570039</v>
       </c>
       <c r="W42" t="n">
-        <v>623.0735865713682</v>
+        <v>536.9689116288023</v>
       </c>
       <c r="X42" t="n">
-        <v>415.2220863658354</v>
+        <v>427.6998149662337</v>
       </c>
       <c r="Y42" t="n">
-        <v>207.4617876008815</v>
+        <v>427.6998149662337</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="C43" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D43" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E43" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F43" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G43" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H43" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I43" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J43" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K43" t="n">
-        <v>1302.533129726572</v>
+        <v>40.81344334191284</v>
       </c>
       <c r="L43" t="n">
-        <v>1368.749958612684</v>
+        <v>107.0302722280248</v>
       </c>
       <c r="M43" t="n">
-        <v>1448.955443483103</v>
+        <v>187.235757098444</v>
       </c>
       <c r="N43" t="n">
-        <v>1532.68843761323</v>
+        <v>270.9687512285709</v>
       </c>
       <c r="O43" t="n">
-        <v>1594.013114755733</v>
+        <v>332.2934283710737</v>
       </c>
       <c r="P43" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Q43" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="R43" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S43" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T43" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U43" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="V43" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="W43" t="n">
-        <v>1622.966287987609</v>
+        <v>253.2519049032823</v>
       </c>
       <c r="X43" t="n">
-        <v>1394.976737089592</v>
+        <v>253.2519049032823</v>
       </c>
       <c r="Y43" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
     </row>
     <row r="44">
@@ -7622,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>896.7318744564152</v>
+        <v>811.2618144142066</v>
       </c>
       <c r="C44" t="n">
-        <v>896.7318744564152</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="D44" t="n">
-        <v>896.7318744564152</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="E44" t="n">
-        <v>896.7318744564152</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="F44" t="n">
-        <v>896.7318744564152</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G44" t="n">
-        <v>486.8919027423725</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H44" t="n">
-        <v>222.1153555684087</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I44" t="n">
         <v>32.45932575975218</v>
@@ -7685,13 +7687,13 @@
         <v>1622.966287987609</v>
       </c>
       <c r="W44" t="n">
-        <v>1270.197632717495</v>
+        <v>1588.00098645414</v>
       </c>
       <c r="X44" t="n">
-        <v>896.7318744564152</v>
+        <v>1588.00098645414</v>
       </c>
       <c r="Y44" t="n">
-        <v>896.7318744564152</v>
+        <v>1197.861654478328</v>
       </c>
     </row>
     <row r="45">
@@ -7701,22 +7703,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>989.6600854869342</v>
+        <v>374.8813674082833</v>
       </c>
       <c r="C45" t="n">
-        <v>815.2070562058072</v>
+        <v>271.0321573380744</v>
       </c>
       <c r="D45" t="n">
-        <v>666.272646544556</v>
+        <v>271.0321573380744</v>
       </c>
       <c r="E45" t="n">
-        <v>507.0351915391004</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="F45" t="n">
-        <v>360.5006335659854</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="G45" t="n">
-        <v>222.0882603251556</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="H45" t="n">
         <v>111.7947023326189</v>
@@ -7740,37 +7742,37 @@
         <v>1335.799553443795</v>
       </c>
       <c r="O45" t="n">
-        <v>1335.799553443795</v>
+        <v>1380.722538783602</v>
       </c>
       <c r="P45" t="n">
-        <v>1578.043302647803</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q45" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R45" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S45" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T45" t="n">
-        <v>1541.568727888341</v>
+        <v>1422.063279093102</v>
       </c>
       <c r="U45" t="n">
-        <v>1541.568727888341</v>
+        <v>1193.860611630581</v>
       </c>
       <c r="V45" t="n">
-        <v>1541.568727888341</v>
+        <v>958.708503398838</v>
       </c>
       <c r="W45" t="n">
-        <v>1541.568727888341</v>
+        <v>958.708503398838</v>
       </c>
       <c r="X45" t="n">
-        <v>1365.635721271956</v>
+        <v>750.8570031933052</v>
       </c>
       <c r="Y45" t="n">
-        <v>1157.875422507002</v>
+        <v>543.0967044283514</v>
       </c>
     </row>
     <row r="46">
@@ -7780,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>32.45932575975218</v>
+        <v>71.82943156598947</v>
       </c>
       <c r="C46" t="n">
-        <v>32.45932575975218</v>
+        <v>71.82943156598947</v>
       </c>
       <c r="D46" t="n">
-        <v>32.45932575975218</v>
+        <v>71.82943156598947</v>
       </c>
       <c r="E46" t="n">
-        <v>32.45932575975218</v>
+        <v>71.82943156598947</v>
       </c>
       <c r="F46" t="n">
-        <v>32.45932575975218</v>
+        <v>71.82943156598947</v>
       </c>
       <c r="G46" t="n">
         <v>32.45932575975218</v>
@@ -7828,28 +7830,28 @@
         <v>361.2466016029501</v>
       </c>
       <c r="R46" t="n">
-        <v>261.5666648398646</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S46" t="n">
-        <v>261.5666648398646</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T46" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U46" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="V46" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="W46" t="n">
-        <v>32.45932575975218</v>
+        <v>71.82943156598947</v>
       </c>
       <c r="X46" t="n">
-        <v>32.45932575975218</v>
+        <v>71.82943156598947</v>
       </c>
       <c r="Y46" t="n">
-        <v>32.45932575975218</v>
+        <v>71.82943156598947</v>
       </c>
     </row>
   </sheetData>
@@ -8061,19 +8063,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>233.2169876979182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>383.6105333221035</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8295,25 +8297,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>369.031319612638</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,22 +8534,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N9" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
-        <v>382.6009056104135</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>139.9817740860215</v>
@@ -8769,7 +8771,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>228.2563757694028</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8781,10 +8783,10 @@
         <v>455.0874215304797</v>
       </c>
       <c r="O12" t="n">
-        <v>112.9628022719302</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>73.77211287831324</v>
       </c>
       <c r="Q12" t="n">
         <v>99.73813450275543</v>
@@ -9003,10 +9005,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>97.05174705344739</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>86.93262649026377</v>
+        <v>228.2563757694028</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9018,13 +9020,13 @@
         <v>455.0874215304797</v>
       </c>
       <c r="O15" t="n">
-        <v>209.1955478481124</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>73.77211287831324</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>99.73813450275543</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9243,16 +9245,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>86.93262649026376</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>362.3381572675152</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>455.0874215304797</v>
+        <v>63.84875129258624</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
@@ -9261,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>99.73813450275543</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9477,19 +9479,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>97.05174705344737</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>86.93262649026376</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>157.134285587881</v>
       </c>
       <c r="M21" t="n">
-        <v>103.505681799068</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>455.0874215304797</v>
+        <v>455.0874215304798</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
@@ -9714,19 +9716,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344737</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>86.93262649026374</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>296.5127271079358</v>
       </c>
       <c r="M24" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>63.84875129258624</v>
+        <v>455.0874215304796</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -9735,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>99.73813450275541</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9957,13 +9959,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>70.10119885733474</v>
       </c>
       <c r="M27" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>63.84875129258624</v>
+        <v>455.0874215304797</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
@@ -9972,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>119.5777639440803</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10188,19 +10190,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344737</v>
       </c>
       <c r="K30" t="n">
         <v>86.93262649026376</v>
       </c>
       <c r="L30" t="n">
-        <v>157.1342855878806</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>455.0874215304797</v>
+        <v>380.7598033349566</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10209,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>99.73813450275543</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10425,10 +10427,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344737</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>86.93262649026376</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10437,7 +10439,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>174.18790452568</v>
+        <v>380.7598033349566</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10674,13 +10676,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>174.18790452568</v>
+        <v>418.8785602873039</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>73.77211287831324</v>
       </c>
       <c r="Q36" t="n">
         <v>99.73813450275543</v>
@@ -10841,7 +10843,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599048</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10899,10 +10901,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>97.05174705344737</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>228.5421249349376</v>
+        <v>86.93262649026376</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10911,16 +10913,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>455.0874215304797</v>
+        <v>351.7205150479949</v>
       </c>
       <c r="O39" t="n">
-        <v>67.58604940343855</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>99.73813450275543</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11139,10 +11141,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>86.93262649026376</v>
+        <v>117.917222536309</v>
       </c>
       <c r="L42" t="n">
-        <v>157.1342855878806</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
         <v>465.7050637499999</v>
@@ -11154,7 +11156,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>73.77211287831324</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11388,13 +11390,13 @@
         <v>455.0874215304797</v>
       </c>
       <c r="O45" t="n">
-        <v>67.58604940343855</v>
+        <v>112.9628022719299</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>145.1148873712468</v>
+        <v>99.73813450275543</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23267,7 +23269,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>289.5309751641331</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>414.7135041305339</v>
@@ -23315,13 +23317,13 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>252.3860301008912</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23337,25 +23339,25 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>65.05805641304683</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23382,22 +23384,22 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>202.7107073159004</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -23431,10 +23433,10 @@
         <v>167.7266695472104</v>
       </c>
       <c r="H13" t="n">
-        <v>56.55224943852487</v>
+        <v>159.8772180037952</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>126.1137933559314</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23458,10 +23460,10 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>64.0297007843443</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>165.4090611368575</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>219.4103988718534</v>
@@ -23501,19 +23503,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>1.134473744809156</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>8.97193213363164</v>
+        <v>101.7755197183095</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I14" t="n">
-        <v>140.0114066867787</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,22 +23542,22 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>195.5929138346465</v>
       </c>
       <c r="T14" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -23574,19 +23576,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>165.2832744570139</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H15" t="n">
         <v>109.1906224126114</v>
@@ -23628,16 +23630,16 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>62.20232686503638</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -23707,19 +23709,19 @@
         <v>226.8162656893113</v>
       </c>
       <c r="U16" t="n">
-        <v>286.3046124576955</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>212.9428526967576</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>118.7949056563661</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23738,19 +23740,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>1.134473744809156</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>8.97193213363164</v>
+        <v>414.7135041305339</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I17" t="n">
-        <v>140.0114066867787</v>
+        <v>70.41439893299201</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23777,22 +23779,22 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -23814,7 +23816,7 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -23826,10 +23828,10 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23856,28 +23858,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>225.9206407878966</v>
       </c>
       <c r="V18" t="n">
-        <v>100.3335836809377</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>190.5475149467566</v>
       </c>
     </row>
     <row r="19">
@@ -23941,16 +23943,16 @@
         <v>219.4103988718534</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>226.8162656893113</v>
       </c>
       <c r="U19" t="n">
         <v>286.3046124576955</v>
       </c>
       <c r="V19" t="n">
-        <v>153.4545059283734</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>213.1612385756531</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23972,22 +23974,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>227.9566474025279</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>1.134473744809156</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>8.97193213363164</v>
+        <v>414.7135041305339</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I20" t="n">
-        <v>91.4532033832543</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24020,22 +24022,22 @@
         <v>195.5929138346465</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24051,19 +24053,19 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>102.0819544271872</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -24093,28 +24095,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>190.5475149467566</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24178,10 +24180,10 @@
         <v>219.4103988718534</v>
       </c>
       <c r="T22" t="n">
-        <v>187.6214750622408</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>187.6214750622409</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24209,7 +24211,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>284.0569217841154</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -24266,7 +24268,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>278.6148488808455</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -24282,22 +24284,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>137.0282495084215</v>
+        <v>49.01944047884372</v>
       </c>
       <c r="H24" t="n">
         <v>109.1906224126114</v>
@@ -24333,16 +24335,16 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S24" t="n">
-        <v>43.77702527914551</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -24376,13 +24378,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>149.6064425243205</v>
+        <v>167.7266695472104</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>159.8772180037952</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>147.5019580580808</v>
       </c>
       <c r="J25" t="n">
         <v>74.67247646141476</v>
@@ -24424,13 +24426,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>179.6082486039198</v>
       </c>
     </row>
     <row r="26">
@@ -24443,16 +24445,16 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>300.8623752099713</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>414.7135041305339</v>
@@ -24488,7 +24490,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>112.8556863456974</v>
+        <v>42.22956650912973</v>
       </c>
       <c r="S26" t="n">
         <v>195.5929138346465</v>
@@ -24503,13 +24505,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24519,13 +24521,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -24537,10 +24539,10 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I27" t="n">
-        <v>31.5993086532566</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24567,28 +24569,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>20.86163684512211</v>
       </c>
       <c r="S27" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24649,7 +24651,7 @@
         <v>165.4090611368575</v>
       </c>
       <c r="S28" t="n">
-        <v>219.4103988718534</v>
+        <v>180.4339941236785</v>
       </c>
       <c r="T28" t="n">
         <v>226.8162656893113</v>
@@ -24661,13 +24663,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>118.794905656366</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24683,19 +24685,19 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>154.3459348695347</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>356.3142545832727</v>
       </c>
       <c r="F29" t="n">
-        <v>1.134473744809156</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>414.7135041305339</v>
       </c>
       <c r="H29" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>187.7594695105699</v>
@@ -24725,13 +24727,13 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>195.5929138346465</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U29" t="n">
         <v>251.2985142370684</v>
@@ -24759,22 +24761,22 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>83.49268325964503</v>
       </c>
       <c r="G30" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>78.54202280713804</v>
@@ -24804,19 +24806,19 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>45.550177831301</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
@@ -24825,7 +24827,7 @@
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24838,19 +24840,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>136.7968536786436</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>167.7266695472104</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>159.8772180037952</v>
@@ -24889,7 +24891,7 @@
         <v>219.4103988718534</v>
       </c>
       <c r="T31" t="n">
-        <v>226.8162656893113</v>
+        <v>69.04353215175595</v>
       </c>
       <c r="U31" t="n">
         <v>286.3046124576955</v>
@@ -24962,25 +24964,25 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>106.1547911609877</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>265.3887710859027</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -24993,7 +24995,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -25002,7 +25004,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>44.15676256702865</v>
       </c>
       <c r="F33" t="n">
         <v>145.0692123933839</v>
@@ -25044,10 +25046,10 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S33" t="n">
-        <v>84.69968995873791</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -25129,16 +25131,16 @@
         <v>226.8162656893113</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.3046124576955</v>
       </c>
       <c r="V34" t="n">
-        <v>212.9428526967576</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>186.7332506408625</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25151,13 +25153,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>309.2103216915546</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -25169,10 +25171,10 @@
         <v>414.7135041305339</v>
       </c>
       <c r="H35" t="n">
-        <v>70.25271456092929</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25205,22 +25207,22 @@
         <v>195.5929138346465</v>
       </c>
       <c r="T35" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25236,13 +25238,13 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>66.31754283196094</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
         <v>137.0282495084215</v>
@@ -25278,16 +25280,16 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T36" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -25296,7 +25298,7 @@
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>190.628013276979</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -25309,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>21.57939819579923</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25321,7 +25323,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>39.33204381001872</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>167.7266695472104</v>
@@ -25360,7 +25362,7 @@
         <v>165.4090611368575</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>219.4103988718534</v>
       </c>
       <c r="T37" t="n">
         <v>226.8162656893113</v>
@@ -25403,13 +25405,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>414.7135041305339</v>
+        <v>8.97193213363164</v>
       </c>
       <c r="H38" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25436,28 +25438,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>112.8556863456974</v>
+        <v>52.07936799459203</v>
       </c>
       <c r="S38" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>220.5164804230398</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>46.11984342706205</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25467,10 +25469,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -25479,16 +25481,16 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>31.59930865325661</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25518,22 +25520,22 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>165.8272126914158</v>
+        <v>38.06716987308232</v>
       </c>
       <c r="T39" t="n">
         <v>198.8939788055617</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -25561,7 +25563,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>128.7502647990355</v>
+        <v>167.7266695472104</v>
       </c>
       <c r="H40" t="n">
         <v>159.8772180037952</v>
@@ -25597,10 +25599,10 @@
         <v>165.4090611368575</v>
       </c>
       <c r="S40" t="n">
-        <v>219.4103988718534</v>
+        <v>120.7272614763991</v>
       </c>
       <c r="T40" t="n">
-        <v>226.8162656893113</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.3046124576955</v>
@@ -25609,7 +25611,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25631,16 +25633,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>343.2257637596402</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>1.134473744809156</v>
       </c>
       <c r="G41" t="n">
-        <v>414.7135041305339</v>
+        <v>8.97193213363164</v>
       </c>
       <c r="H41" t="n">
         <v>333.4403157157206</v>
@@ -25673,28 +25675,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>268.8928680784757</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25704,7 +25706,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>71.82276923428742</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
@@ -25716,16 +25718,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25752,10 +25754,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S42" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -25770,10 +25772,10 @@
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>97.59657950753459</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -25846,13 +25848,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>179.6082486039199</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>118.7949056563663</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25862,10 +25864,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -25874,16 +25876,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>1.134473744809156</v>
       </c>
       <c r="G44" t="n">
-        <v>8.97193213363164</v>
+        <v>414.7135041305339</v>
       </c>
       <c r="H44" t="n">
-        <v>71.3115340134965</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25925,13 +25927,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>314.6253201992786</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -25944,22 +25946,22 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>69.89778101880891</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -25989,25 +25991,25 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S45" t="n">
         <v>165.8272126914158</v>
       </c>
       <c r="T45" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>31.59930865325657</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -26035,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.7266695472104</v>
+        <v>128.7502647990355</v>
       </c>
       <c r="H46" t="n">
         <v>159.8772180037952</v>
@@ -26068,13 +26070,13 @@
         <v>64.0297007843443</v>
       </c>
       <c r="R46" t="n">
-        <v>66.72592374140289</v>
+        <v>165.4090611368575</v>
       </c>
       <c r="S46" t="n">
         <v>219.4103988718534</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>226.8162656893113</v>
       </c>
       <c r="U46" t="n">
         <v>286.3046124576955</v>
@@ -26083,7 +26085,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>489209.1066595372</v>
+        <v>489209.1066595369</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>489209.1066595367</v>
+        <v>489209.1066595368</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>489209.1066595372</v>
+        <v>489209.1066595367</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>489209.1066595368</v>
+        <v>489209.1066595365</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>489209.1066595368</v>
+        <v>489209.1066595365</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>489209.1066595369</v>
+        <v>489209.1066595371</v>
       </c>
     </row>
     <row r="14">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>489209.1066595371</v>
+        <v>489209.1066595365</v>
       </c>
     </row>
   </sheetData>
@@ -26311,31 +26313,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>513151.1061651771</v>
+        <v>513151.106165177</v>
       </c>
       <c r="C2" t="n">
         <v>513151.1061651771</v>
       </c>
       <c r="D2" t="n">
-        <v>513151.1061651768</v>
+        <v>513151.1061651771</v>
       </c>
       <c r="E2" t="n">
-        <v>267036.1213307581</v>
+        <v>267036.121330758</v>
       </c>
       <c r="F2" t="n">
-        <v>267036.1213307581</v>
+        <v>267036.121330758</v>
       </c>
       <c r="G2" t="n">
         <v>267036.121330758</v>
       </c>
       <c r="H2" t="n">
-        <v>267036.121330758</v>
+        <v>267036.1213307581</v>
       </c>
       <c r="I2" t="n">
-        <v>267036.121330758</v>
+        <v>267036.1213307581</v>
       </c>
       <c r="J2" t="n">
-        <v>267036.121330758</v>
+        <v>267036.1213307581</v>
       </c>
       <c r="K2" t="n">
         <v>267036.121330758</v>
@@ -26350,10 +26352,10 @@
         <v>267036.121330758</v>
       </c>
       <c r="O2" t="n">
-        <v>267036.1213307581</v>
+        <v>267036.121330758</v>
       </c>
       <c r="P2" t="n">
-        <v>267036.1213307581</v>
+        <v>267036.1213307579</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154774</v>
+        <v>80769.43153154773</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910623</v>
+        <v>63059.94259910626</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>41050.69786244792</v>
+        <v>41050.69786244789</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26433,7 +26435,7 @@
         <v>8850.046967220573</v>
       </c>
       <c r="H4" t="n">
-        <v>8850.046967220573</v>
+        <v>8850.046967220575</v>
       </c>
       <c r="I4" t="n">
         <v>8850.046967220573</v>
@@ -26476,7 +26478,7 @@
         <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>27864.35291375757</v>
+        <v>27864.35291375756</v>
       </c>
       <c r="F5" t="n">
         <v>27864.35291375756</v>
@@ -26485,19 +26487,19 @@
         <v>27864.35291375756</v>
       </c>
       <c r="H5" t="n">
-        <v>27864.35291375756</v>
+        <v>27864.35291375757</v>
       </c>
       <c r="I5" t="n">
         <v>27864.35291375756</v>
       </c>
       <c r="J5" t="n">
-        <v>27864.35291375756</v>
+        <v>27864.35291375757</v>
       </c>
       <c r="K5" t="n">
-        <v>27864.35291375756</v>
+        <v>27864.35291375757</v>
       </c>
       <c r="L5" t="n">
-        <v>27864.35291375756</v>
+        <v>27864.35291375757</v>
       </c>
       <c r="M5" t="n">
         <v>27864.35291375756</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>96607.76716606593</v>
+        <v>96607.76716606581</v>
       </c>
       <c r="C6" t="n">
         <v>177377.1986976136</v>
       </c>
       <c r="D6" t="n">
-        <v>177377.1986976133</v>
+        <v>177377.1986976136</v>
       </c>
       <c r="E6" t="n">
-        <v>63381.55132453321</v>
+        <v>63381.55132453311</v>
       </c>
       <c r="F6" t="n">
-        <v>230321.72144978</v>
+        <v>230321.7214497798</v>
       </c>
       <c r="G6" t="n">
-        <v>230321.7214497799</v>
+        <v>230321.7214497798</v>
       </c>
       <c r="H6" t="n">
         <v>230321.7214497799</v>
       </c>
       <c r="I6" t="n">
+        <v>230321.72144978</v>
+      </c>
+      <c r="J6" t="n">
+        <v>167261.7788506737</v>
+      </c>
+      <c r="K6" t="n">
         <v>230321.7214497798</v>
       </c>
-      <c r="J6" t="n">
-        <v>167261.7788506736</v>
-      </c>
-      <c r="K6" t="n">
+      <c r="L6" t="n">
+        <v>230321.7214497797</v>
+      </c>
+      <c r="M6" t="n">
+        <v>189271.0235873321</v>
+      </c>
+      <c r="N6" t="n">
+        <v>230321.7214497798</v>
+      </c>
+      <c r="O6" t="n">
         <v>230321.7214497799</v>
       </c>
-      <c r="L6" t="n">
+      <c r="P6" t="n">
         <v>230321.7214497798</v>
-      </c>
-      <c r="M6" t="n">
-        <v>189271.023587332</v>
-      </c>
-      <c r="N6" t="n">
-        <v>230321.7214497799</v>
-      </c>
-      <c r="O6" t="n">
-        <v>230321.72144978</v>
-      </c>
-      <c r="P6" t="n">
-        <v>230321.72144978</v>
       </c>
     </row>
   </sheetData>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.0142888776592</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27376,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>185.1569885989568</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27400,7 +27402,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27421,7 +27423,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
@@ -27433,19 +27435,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W2" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>128.71681180081</v>
       </c>
       <c r="Y2" t="n">
-        <v>208.0806256240705</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27455,10 +27457,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>40.91147334704343</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -27470,16 +27472,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27506,16 +27508,16 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>147.8358748651783</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>10.68069428326055</v>
@@ -27524,7 +27526,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27555,10 +27557,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27576,7 +27578,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>86.16204325169439</v>
@@ -27591,7 +27593,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3190293564909</v>
+        <v>178.1229943321122</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27619,7 +27621,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27634,10 +27636,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27658,28 +27660,28 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>302.9767661813997</v>
+        <v>147.6302790004598</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27692,13 +27694,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>119.1473929100733</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -27749,13 +27751,13 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>145.07845618927</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -27798,7 +27800,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27816,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>155.2593996044852</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -27840,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>88.11912650183325</v>
       </c>
     </row>
     <row r="8">
@@ -27850,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>141.7195527858215</v>
+        <v>352.4870564325794</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27874,7 +27876,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27898,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
@@ -27910,16 +27912,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>159.5856446526967</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>108.226679839754</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y8" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27932,7 +27934,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -27944,7 +27946,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>112.2354442364965</v>
@@ -27953,7 +27955,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27977,28 +27979,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>71.81389502149607</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>31.58320066403942</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -28020,7 +28022,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>14.95552117266971</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.9909793584588</v>
@@ -28035,7 +28037,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28065,7 +28067,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3190293564909</v>
+        <v>178.1229943321122</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -31987,22 +31989,22 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5892333846011533</v>
+        <v>0.5892333846011534</v>
       </c>
       <c r="H14" t="n">
-        <v>6.034486400046562</v>
+        <v>6.034486400046564</v>
       </c>
       <c r="I14" t="n">
-        <v>22.71642005983598</v>
+        <v>22.71642005983599</v>
       </c>
       <c r="J14" t="n">
-        <v>50.01044697629218</v>
+        <v>50.01044697629219</v>
       </c>
       <c r="K14" t="n">
-        <v>74.952696146459</v>
+        <v>74.95269614645902</v>
       </c>
       <c r="L14" t="n">
-        <v>92.98544734044657</v>
+        <v>92.9854473404466</v>
       </c>
       <c r="M14" t="n">
         <v>103.4642265438473</v>
@@ -32011,25 +32013,25 @@
         <v>105.1383858978454</v>
       </c>
       <c r="O14" t="n">
-        <v>99.27919642971764</v>
+        <v>99.27919642971766</v>
       </c>
       <c r="P14" t="n">
-        <v>84.73249724737666</v>
+        <v>84.73249724737667</v>
       </c>
       <c r="Q14" t="n">
-        <v>63.63057666134784</v>
+        <v>63.63057666134785</v>
       </c>
       <c r="R14" t="n">
         <v>37.01343159545223</v>
       </c>
       <c r="S14" t="n">
-        <v>13.42715575159879</v>
+        <v>13.4271557515988</v>
       </c>
       <c r="T14" t="n">
         <v>2.57936914109155</v>
       </c>
       <c r="U14" t="n">
-        <v>0.04713867076809225</v>
+        <v>0.04713867076809226</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32069,7 +32071,7 @@
         <v>0.3152676547891928</v>
       </c>
       <c r="H15" t="n">
-        <v>3.044821823885099</v>
+        <v>3.0448218238851</v>
       </c>
       <c r="I15" t="n">
         <v>10.85461004427703</v>
@@ -32078,22 +32080,22 @@
         <v>29.78587961321931</v>
       </c>
       <c r="K15" t="n">
-        <v>50.90881248409522</v>
+        <v>50.90881248409524</v>
       </c>
       <c r="L15" t="n">
-        <v>68.45318092253943</v>
+        <v>68.45318092253945</v>
       </c>
       <c r="M15" t="n">
-        <v>79.88163340864764</v>
+        <v>79.88163340864766</v>
       </c>
       <c r="N15" t="n">
-        <v>81.99586254975588</v>
+        <v>81.99586254975591</v>
       </c>
       <c r="O15" t="n">
-        <v>75.01019504100587</v>
+        <v>75.01019504100589</v>
       </c>
       <c r="P15" t="n">
-        <v>60.202294536017</v>
+        <v>60.20229453601701</v>
       </c>
       <c r="Q15" t="n">
         <v>40.24363958326609</v>
@@ -32102,7 +32104,7 @@
         <v>19.57424965436761</v>
       </c>
       <c r="S15" t="n">
-        <v>5.855958412422064</v>
+        <v>5.855958412422065</v>
       </c>
       <c r="T15" t="n">
         <v>1.270749889259948</v>
@@ -32145,34 +32147,34 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2643098112483453</v>
+        <v>0.2643098112483454</v>
       </c>
       <c r="H16" t="n">
-        <v>2.349954503644381</v>
+        <v>2.349954503644382</v>
       </c>
       <c r="I16" t="n">
-        <v>7.948516869177515</v>
+        <v>7.948516869177517</v>
       </c>
       <c r="J16" t="n">
-        <v>18.68670365525801</v>
+        <v>18.68670365525802</v>
       </c>
       <c r="K16" t="n">
         <v>30.70799443412594</v>
       </c>
       <c r="L16" t="n">
-        <v>39.29566048323128</v>
+        <v>39.29566048323129</v>
       </c>
       <c r="M16" t="n">
-        <v>41.43176432141108</v>
+        <v>41.43176432141109</v>
       </c>
       <c r="N16" t="n">
-        <v>40.44660957039455</v>
+        <v>40.44660957039456</v>
       </c>
       <c r="O16" t="n">
-        <v>37.35899041172068</v>
+        <v>37.35899041172069</v>
       </c>
       <c r="P16" t="n">
-        <v>31.96707026225441</v>
+        <v>31.96707026225442</v>
       </c>
       <c r="Q16" t="n">
         <v>22.13234246735009</v>
@@ -32181,7 +32183,7 @@
         <v>11.88433024031196</v>
       </c>
       <c r="S16" t="n">
-        <v>4.606199165118889</v>
+        <v>4.60619916511889</v>
       </c>
       <c r="T16" t="n">
         <v>1.129323738970203</v>
@@ -32698,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5892333846011534</v>
+        <v>0.5892333846011535</v>
       </c>
       <c r="H23" t="n">
-        <v>6.034486400046564</v>
+        <v>6.034486400046565</v>
       </c>
       <c r="I23" t="n">
         <v>22.71642005983599</v>
       </c>
       <c r="J23" t="n">
-        <v>50.01044697629219</v>
+        <v>50.0104469762922</v>
       </c>
       <c r="K23" t="n">
-        <v>74.95269614645902</v>
+        <v>74.95269614645905</v>
       </c>
       <c r="L23" t="n">
-        <v>92.9854473404466</v>
+        <v>92.98544734044661</v>
       </c>
       <c r="M23" t="n">
-        <v>103.4642265438473</v>
+        <v>103.4642265438474</v>
       </c>
       <c r="N23" t="n">
         <v>105.1383858978454</v>
       </c>
       <c r="O23" t="n">
-        <v>99.27919642971766</v>
+        <v>99.27919642971769</v>
       </c>
       <c r="P23" t="n">
-        <v>84.73249724737667</v>
+        <v>84.73249724737668</v>
       </c>
       <c r="Q23" t="n">
-        <v>63.63057666134785</v>
+        <v>63.63057666134786</v>
       </c>
       <c r="R23" t="n">
-        <v>37.01343159545223</v>
+        <v>37.01343159545224</v>
       </c>
       <c r="S23" t="n">
         <v>13.4271557515988</v>
       </c>
       <c r="T23" t="n">
-        <v>2.57936914109155</v>
+        <v>2.579369141091551</v>
       </c>
       <c r="U23" t="n">
-        <v>0.04713867076809226</v>
+        <v>0.04713867076809227</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,43 +32779,43 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.3152676547891928</v>
+        <v>0.3152676547891929</v>
       </c>
       <c r="H24" t="n">
         <v>3.0448218238851</v>
       </c>
       <c r="I24" t="n">
-        <v>10.85461004427703</v>
+        <v>10.85461004427704</v>
       </c>
       <c r="J24" t="n">
-        <v>29.78587961321931</v>
+        <v>29.78587961321932</v>
       </c>
       <c r="K24" t="n">
         <v>50.90881248409524</v>
       </c>
       <c r="L24" t="n">
-        <v>68.45318092253945</v>
+        <v>68.45318092253946</v>
       </c>
       <c r="M24" t="n">
-        <v>79.88163340864766</v>
+        <v>79.88163340864767</v>
       </c>
       <c r="N24" t="n">
-        <v>81.99586254975591</v>
+        <v>81.99586254975593</v>
       </c>
       <c r="O24" t="n">
-        <v>75.01019504100589</v>
+        <v>75.0101950410059</v>
       </c>
       <c r="P24" t="n">
-        <v>60.20229453601701</v>
+        <v>60.20229453601702</v>
       </c>
       <c r="Q24" t="n">
-        <v>40.24363958326609</v>
+        <v>40.2436395832661</v>
       </c>
       <c r="R24" t="n">
-        <v>19.57424965436761</v>
+        <v>19.57424965436762</v>
       </c>
       <c r="S24" t="n">
-        <v>5.855958412422065</v>
+        <v>5.855958412422066</v>
       </c>
       <c r="T24" t="n">
         <v>1.270749889259948</v>
@@ -32856,19 +32858,19 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2643098112483454</v>
+        <v>0.2643098112483455</v>
       </c>
       <c r="H25" t="n">
         <v>2.349954503644382</v>
       </c>
       <c r="I25" t="n">
-        <v>7.948516869177517</v>
+        <v>7.948516869177519</v>
       </c>
       <c r="J25" t="n">
         <v>18.68670365525802</v>
       </c>
       <c r="K25" t="n">
-        <v>30.70799443412594</v>
+        <v>30.70799443412595</v>
       </c>
       <c r="L25" t="n">
         <v>39.29566048323129</v>
@@ -32880,7 +32882,7 @@
         <v>40.44660957039456</v>
       </c>
       <c r="O25" t="n">
-        <v>37.35899041172069</v>
+        <v>37.3589904117207</v>
       </c>
       <c r="P25" t="n">
         <v>31.96707026225442</v>
@@ -32889,16 +32891,16 @@
         <v>22.13234246735009</v>
       </c>
       <c r="R25" t="n">
-        <v>11.88433024031196</v>
+        <v>11.88433024031197</v>
       </c>
       <c r="S25" t="n">
-        <v>4.60619916511889</v>
+        <v>4.606199165118891</v>
       </c>
       <c r="T25" t="n">
         <v>1.129323738970203</v>
       </c>
       <c r="U25" t="n">
-        <v>0.01441689879536431</v>
+        <v>0.01441689879536432</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -34705,7 +34707,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N2" t="n">
         <v>207.9338608153932</v>
@@ -34781,19 +34783,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>91.0829537758999</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>70.09551364982758</v>
@@ -35015,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>226.4350751681936</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35252,22 +35254,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N9" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O9" t="n">
-        <v>240.0046611659691</v>
-      </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35489,7 +35491,7 @@
         <v>29.03928828696146</v>
       </c>
       <c r="K12" t="n">
-        <v>177.5326105223148</v>
+        <v>141.3237492791391</v>
       </c>
       <c r="L12" t="n">
         <v>300.7391464461244</v>
@@ -35501,10 +35503,10 @@
         <v>405.7415719969023</v>
       </c>
       <c r="O12" t="n">
-        <v>45.37675286849161</v>
+        <v>326.276269873291</v>
       </c>
       <c r="P12" t="n">
-        <v>244.6906557616239</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35644,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>38.06115762167966</v>
+        <v>38.06115762167967</v>
       </c>
       <c r="K14" t="n">
         <v>179.0082576726432</v>
@@ -35656,7 +35658,7 @@
         <v>322.6315268094071</v>
       </c>
       <c r="N14" t="n">
-        <v>313.0722467132386</v>
+        <v>313.0722467132387</v>
       </c>
       <c r="O14" t="n">
         <v>249.9811662707763</v>
@@ -35665,7 +35667,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q14" t="n">
-        <v>53.63987744680303</v>
+        <v>53.63987744680304</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,10 +35725,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>29.03928828696146</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>141.3237492791391</v>
       </c>
       <c r="L15" t="n">
         <v>300.7391464461244</v>
@@ -35738,13 +35740,13 @@
         <v>405.7415719969023</v>
       </c>
       <c r="O15" t="n">
-        <v>141.6094984446738</v>
+        <v>326.276269873291</v>
       </c>
       <c r="P15" t="n">
-        <v>244.6906557616239</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>110.3391532330937</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35805,16 +35807,16 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>8.438502608243084</v>
+        <v>8.438502608243091</v>
       </c>
       <c r="L16" t="n">
-        <v>66.88568574354741</v>
+        <v>66.88568574354743</v>
       </c>
       <c r="M16" t="n">
-        <v>81.01564128325167</v>
+        <v>81.01564128325168</v>
       </c>
       <c r="N16" t="n">
-        <v>84.57878194962314</v>
+        <v>84.57878194962315</v>
       </c>
       <c r="O16" t="n">
         <v>61.94411832576036</v>
@@ -35963,16 +35965,16 @@
         <v>29.03928828696146</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>177.5326105223148</v>
       </c>
       <c r="L18" t="n">
         <v>300.7391464461244</v>
       </c>
       <c r="M18" t="n">
-        <v>300.0857567541445</v>
+        <v>403.4526632366292</v>
       </c>
       <c r="N18" t="n">
-        <v>405.7415719969023</v>
+        <v>14.50290175900885</v>
       </c>
       <c r="O18" t="n">
         <v>326.276269873291</v>
@@ -35981,7 +35983,7 @@
         <v>244.6906557616239</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>110.3391532330937</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36197,16 +36199,16 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>29.03928828696146</v>
       </c>
       <c r="K21" t="n">
-        <v>177.5326105223148</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>300.7391464461244</v>
+        <v>87.03308673054623</v>
       </c>
       <c r="M21" t="n">
-        <v>41.25328128569732</v>
+        <v>403.4526632366292</v>
       </c>
       <c r="N21" t="n">
         <v>405.7415719969023</v>
@@ -36355,10 +36357,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>38.06115762167967</v>
+        <v>38.06115762167968</v>
       </c>
       <c r="K23" t="n">
-        <v>179.0082576726432</v>
+        <v>179.0082576726433</v>
       </c>
       <c r="L23" t="n">
         <v>274.8802469209098</v>
@@ -36376,7 +36378,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q23" t="n">
-        <v>53.63987744680304</v>
+        <v>53.63987744680306</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36434,19 +36436,19 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>29.03928828696146</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>177.5326105223148</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>300.7391464461244</v>
+        <v>226.4115282506011</v>
       </c>
       <c r="M24" t="n">
-        <v>403.4526632366292</v>
+        <v>403.4526632366293</v>
       </c>
       <c r="N24" t="n">
-        <v>14.50290175900885</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="O24" t="n">
         <v>326.276269873291</v>
@@ -36455,7 +36457,7 @@
         <v>244.6906557616239</v>
       </c>
       <c r="Q24" t="n">
-        <v>110.3391532330937</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36516,22 +36518,22 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>8.438502608243091</v>
+        <v>8.438502608243095</v>
       </c>
       <c r="L25" t="n">
-        <v>66.88568574354743</v>
+        <v>66.88568574354744</v>
       </c>
       <c r="M25" t="n">
         <v>81.01564128325168</v>
       </c>
       <c r="N25" t="n">
-        <v>84.57878194962315</v>
+        <v>84.57878194962316</v>
       </c>
       <c r="O25" t="n">
-        <v>61.94411832576036</v>
+        <v>61.94411832576037</v>
       </c>
       <c r="P25" t="n">
-        <v>29.2456295271479</v>
+        <v>29.24562952714791</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36677,13 +36679,13 @@
         <v>177.5326105223148</v>
       </c>
       <c r="L27" t="n">
-        <v>300.7391464461244</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>403.4526632366292</v>
       </c>
       <c r="N27" t="n">
-        <v>14.50290175900885</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="O27" t="n">
         <v>326.276269873291</v>
@@ -36692,7 +36694,7 @@
         <v>244.6906557616239</v>
       </c>
       <c r="Q27" t="n">
-        <v>110.3391532330937</v>
+        <v>19.8396294413249</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36908,19 +36910,19 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>29.03928828696146</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>87.03308673054588</v>
+        <v>300.7391464461244</v>
       </c>
       <c r="M30" t="n">
         <v>403.4526632366292</v>
       </c>
       <c r="N30" t="n">
-        <v>405.7415719969023</v>
+        <v>331.4139538013792</v>
       </c>
       <c r="O30" t="n">
         <v>326.276269873291</v>
@@ -36929,7 +36931,7 @@
         <v>244.6906557616239</v>
       </c>
       <c r="Q30" t="n">
-        <v>110.3391532330937</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37145,10 +37147,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>29.03928828696146</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>177.5326105223148</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>300.7391464461244</v>
@@ -37157,7 +37159,7 @@
         <v>403.4526632366292</v>
       </c>
       <c r="N33" t="n">
-        <v>124.8420549921026</v>
+        <v>331.4139538013792</v>
       </c>
       <c r="O33" t="n">
         <v>326.276269873291</v>
@@ -37394,13 +37396,13 @@
         <v>403.4526632366292</v>
       </c>
       <c r="N36" t="n">
-        <v>124.8420549921026</v>
+        <v>369.5327107537265</v>
       </c>
       <c r="O36" t="n">
         <v>326.276269873291</v>
       </c>
       <c r="P36" t="n">
-        <v>244.6906557616239</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37561,7 +37563,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q38" t="n">
-        <v>53.63987744680312</v>
+        <v>53.63987744680304</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37619,10 +37621,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>29.03928828696146</v>
       </c>
       <c r="K39" t="n">
-        <v>141.6094984446739</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>300.7391464461244</v>
@@ -37631,16 +37633,16 @@
         <v>403.4526632366292</v>
       </c>
       <c r="N39" t="n">
-        <v>405.7415719969023</v>
+        <v>302.3746655144175</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>326.276269873291</v>
       </c>
       <c r="P39" t="n">
         <v>244.6906557616239</v>
       </c>
       <c r="Q39" t="n">
-        <v>110.3391532330937</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37859,10 +37861,10 @@
         <v>29.03928828696146</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>30.98459604604529</v>
       </c>
       <c r="L42" t="n">
-        <v>87.03308673054588</v>
+        <v>300.7391464461244</v>
       </c>
       <c r="M42" t="n">
         <v>403.4526632366292</v>
@@ -37874,7 +37876,7 @@
         <v>326.276269873291</v>
       </c>
       <c r="P42" t="n">
-        <v>244.6906557616239</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>110.3391532330937</v>
@@ -38108,13 +38110,13 @@
         <v>405.7415719969023</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>45.37675286849139</v>
       </c>
       <c r="P45" t="n">
         <v>244.6906557616239</v>
       </c>
       <c r="Q45" t="n">
-        <v>45.37675286849139</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
